--- a/input/Financial Statement MSFT/Compiled Balance Statement-MSFT.xlsx
+++ b/input/Financial Statement MSFT/Compiled Balance Statement-MSFT.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,22 +442,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year Ended 2018</t>
+          <t>Q1 2019</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Q1 2019</t>
+          <t>Q2 2019</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Q2 2019</t>
+          <t>Q3 2019</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Q3 2019</t>
+          <t>Q4 2019</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -482,45 +482,60 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Q4 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Year Ended 2020</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Q1 2021</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Q2 2021</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Q3 2021</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Q4 2021</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Year Ended 2021</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Q1 2022</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Q2 2022</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Q3 2022</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Q4 2022</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Year Ended 2022</t>
         </is>
@@ -548,7 +563,14 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -561,16 +583,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11946</v>
+        <v>15137</v>
       </c>
       <c r="C3" t="n">
-        <v>15137</v>
+        <v>6638</v>
       </c>
       <c r="D3" t="n">
-        <v>6638</v>
+        <v>11212</v>
       </c>
       <c r="E3" t="n">
-        <v>11212</v>
+        <v>11356</v>
       </c>
       <c r="F3" t="n">
         <v>11356</v>
@@ -588,27 +610,36 @@
         <v>13576</v>
       </c>
       <c r="K3" t="n">
+        <v>13576</v>
+      </c>
+      <c r="L3" t="n">
         <v>17205</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>14432</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>13702</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>14224</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
+        <v>14224</v>
+      </c>
+      <c r="Q3" t="n">
         <v>19165</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>20604</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>12498</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
+        <v>13931</v>
+      </c>
+      <c r="U3" t="n">
         <v>13931</v>
       </c>
     </row>
@@ -619,16 +650,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121822</v>
+        <v>120743</v>
       </c>
       <c r="C4" t="n">
-        <v>120743</v>
+        <v>121024</v>
       </c>
       <c r="D4" t="n">
-        <v>121024</v>
+        <v>120406</v>
       </c>
       <c r="E4" t="n">
-        <v>120406</v>
+        <v>122463</v>
       </c>
       <c r="F4" t="n">
         <v>122463</v>
@@ -646,27 +677,36 @@
         <v>122951</v>
       </c>
       <c r="K4" t="n">
+        <v>122951</v>
+      </c>
+      <c r="L4" t="n">
         <v>120772</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>117536</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>111705</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>116110</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
+        <v>116110</v>
+      </c>
+      <c r="Q4" t="n">
         <v>111450</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>104765</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>92195</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
+        <v>90826</v>
+      </c>
+      <c r="U4" t="n">
         <v>90826</v>
       </c>
     </row>
@@ -677,16 +717,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>133768</v>
+        <v>135880</v>
       </c>
       <c r="C5" t="n">
-        <v>135880</v>
+        <v>127662</v>
       </c>
       <c r="D5" t="n">
-        <v>127662</v>
+        <v>131618</v>
       </c>
       <c r="E5" t="n">
-        <v>131618</v>
+        <v>133819</v>
       </c>
       <c r="F5" t="n">
         <v>133819</v>
@@ -704,27 +744,36 @@
         <v>136527</v>
       </c>
       <c r="K5" t="n">
+        <v>136527</v>
+      </c>
+      <c r="L5" t="n">
         <v>137977</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>131968</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>125407</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>130334</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
+        <v>130334</v>
+      </c>
+      <c r="Q5" t="n">
         <v>130615</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>125369</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>104693</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
+        <v>104757</v>
+      </c>
+      <c r="U5" t="n">
         <v>104757</v>
       </c>
     </row>
@@ -735,16 +784,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26481</v>
+        <v>17390</v>
       </c>
       <c r="C6" t="n">
-        <v>17390</v>
+        <v>19680</v>
       </c>
       <c r="D6" t="n">
-        <v>19680</v>
+        <v>19269</v>
       </c>
       <c r="E6" t="n">
-        <v>19269</v>
+        <v>29524</v>
       </c>
       <c r="F6" t="n">
         <v>29524</v>
@@ -762,27 +811,36 @@
         <v>32011</v>
       </c>
       <c r="K6" t="n">
+        <v>32011</v>
+      </c>
+      <c r="L6" t="n">
         <v>22851</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>27312</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>26322</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>38043</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
+        <v>38043</v>
+      </c>
+      <c r="Q6" t="n">
         <v>27349</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>33520</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="S6" t="n">
         <v>32613</v>
       </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
+        <v>44261</v>
+      </c>
+      <c r="U6" t="n">
         <v>44261</v>
       </c>
     </row>
@@ -793,16 +851,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2662</v>
+        <v>3614</v>
       </c>
       <c r="C7" t="n">
-        <v>3614</v>
+        <v>1961</v>
       </c>
       <c r="D7" t="n">
-        <v>1961</v>
+        <v>1951</v>
       </c>
       <c r="E7" t="n">
-        <v>1951</v>
+        <v>2063</v>
       </c>
       <c r="F7" t="n">
         <v>2063</v>
@@ -820,111 +878,132 @@
         <v>1895</v>
       </c>
       <c r="K7" t="n">
+        <v>1895</v>
+      </c>
+      <c r="L7" t="n">
         <v>2705</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>1924</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>2245</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>2636</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
+        <v>2636</v>
+      </c>
+      <c r="Q7" t="n">
         <v>3411</v>
       </c>
-      <c r="P7" t="n">
+      <c r="R7" t="n">
         <v>3019</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
         <v>3296</v>
       </c>
-      <c r="R7" t="n">
+      <c r="T7" t="n">
+        <v>3742</v>
+      </c>
+      <c r="U7" t="n">
         <v>3742</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6751</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7311</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7571</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7049</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10146</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
+          <t>other current assets</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>7551</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7473</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8536</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11482</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11482</v>
+      </c>
+      <c r="L8" t="n">
+        <v>13544</v>
+      </c>
+      <c r="M8" t="n">
+        <v>12769</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11640</v>
+      </c>
+      <c r="O8" t="n">
+        <v>13393</v>
+      </c>
+      <c r="P8" t="n">
+        <v>13393</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>12951</v>
+      </c>
+      <c r="R8" t="n">
+        <v>12280</v>
+      </c>
+      <c r="S8" t="n">
+        <v>13320</v>
+      </c>
+      <c r="T8" t="n">
+        <v>16924</v>
+      </c>
+      <c r="U8" t="n">
+        <v>16924</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>other current assets</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>7551</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7473</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8536</v>
-      </c>
-      <c r="J9" t="n">
-        <v>11482</v>
-      </c>
-      <c r="K9" t="n">
-        <v>13544</v>
-      </c>
-      <c r="L9" t="n">
-        <v>12769</v>
-      </c>
-      <c r="M9" t="n">
-        <v>11640</v>
-      </c>
-      <c r="N9" t="n">
-        <v>13393</v>
-      </c>
-      <c r="O9" t="n">
-        <v>12951</v>
-      </c>
-      <c r="P9" t="n">
-        <v>12280</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>13320</v>
-      </c>
-      <c r="R9" t="n">
-        <v>16924</v>
-      </c>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7311</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7571</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7049</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10146</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10146</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -933,16 +1012,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>169662</v>
+        <v>164195</v>
       </c>
       <c r="C10" t="n">
-        <v>164195</v>
+        <v>156874</v>
       </c>
       <c r="D10" t="n">
-        <v>156874</v>
+        <v>159887</v>
       </c>
       <c r="E10" t="n">
-        <v>159887</v>
+        <v>175552</v>
       </c>
       <c r="F10" t="n">
         <v>175552</v>
@@ -960,27 +1039,36 @@
         <v>181915</v>
       </c>
       <c r="K10" t="n">
+        <v>181915</v>
+      </c>
+      <c r="L10" t="n">
         <v>177077</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>173973</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>165614</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>184406</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
+        <v>184406</v>
+      </c>
+      <c r="Q10" t="n">
         <v>174326</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>174188</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="S10" t="n">
         <v>153922</v>
       </c>
-      <c r="R10" t="n">
+      <c r="T10" t="n">
+        <v>169684</v>
+      </c>
+      <c r="U10" t="n">
         <v>169684</v>
       </c>
     </row>
@@ -991,16 +1079,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29460</v>
+        <v>31430</v>
       </c>
       <c r="C11" t="n">
-        <v>31430</v>
+        <v>32717</v>
       </c>
       <c r="D11" t="n">
-        <v>32717</v>
+        <v>33648</v>
       </c>
       <c r="E11" t="n">
-        <v>33648</v>
+        <v>36477</v>
       </c>
       <c r="F11" t="n">
         <v>36477</v>
@@ -1018,27 +1106,36 @@
         <v>44151</v>
       </c>
       <c r="K11" t="n">
+        <v>44151</v>
+      </c>
+      <c r="L11" t="n">
         <v>47927</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>51737</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>54945</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>59715</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
+        <v>59715</v>
+      </c>
+      <c r="Q11" t="n">
         <v>63772</v>
       </c>
-      <c r="P11" t="n">
+      <c r="R11" t="n">
         <v>67214</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="S11" t="n">
         <v>70298</v>
       </c>
-      <c r="R11" t="n">
+      <c r="T11" t="n">
+        <v>74398</v>
+      </c>
+      <c r="U11" t="n">
         <v>74398</v>
       </c>
     </row>
@@ -1049,16 +1146,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6686</v>
+        <v>6734</v>
       </c>
       <c r="C12" t="n">
-        <v>6734</v>
+        <v>6806</v>
       </c>
       <c r="D12" t="n">
-        <v>6806</v>
+        <v>7121</v>
       </c>
       <c r="E12" t="n">
-        <v>7121</v>
+        <v>7379</v>
       </c>
       <c r="F12" t="n">
         <v>7379</v>
@@ -1076,1691 +1173,1904 @@
         <v>8753</v>
       </c>
       <c r="K12" t="n">
+        <v>8753</v>
+      </c>
+      <c r="L12" t="n">
         <v>9047</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>10298</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>10673</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>11088</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
+        <v>11088</v>
+      </c>
+      <c r="Q12" t="n">
         <v>11575</v>
       </c>
-      <c r="P12" t="n">
+      <c r="R12" t="n">
         <v>12354</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="S12" t="n">
         <v>12916</v>
       </c>
-      <c r="R12" t="n">
+      <c r="T12" t="n">
+        <v>13148</v>
+      </c>
+      <c r="U12" t="n">
         <v>13148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>equity and other investments</t>
+          <t>equity investments</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1862</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+        <v>2034</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2274</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2403</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2649</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2649</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2684</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2755</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2660</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2965</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2965</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3103</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3794</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5395</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5984</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5984</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>6393</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6994</v>
+      </c>
+      <c r="S13" t="n">
+        <v>6907</v>
+      </c>
+      <c r="T13" t="n">
+        <v>6891</v>
+      </c>
+      <c r="U13" t="n">
+        <v>6891</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>equity investments</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>goodwill</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>35855</v>
+      </c>
       <c r="C14" t="n">
-        <v>2034</v>
+        <v>41577</v>
       </c>
       <c r="D14" t="n">
-        <v>2274</v>
+        <v>41861</v>
       </c>
       <c r="E14" t="n">
-        <v>2403</v>
+        <v>42026</v>
       </c>
       <c r="F14" t="n">
-        <v>2649</v>
+        <v>42026</v>
       </c>
       <c r="G14" t="n">
-        <v>2684</v>
+        <v>42113</v>
       </c>
       <c r="H14" t="n">
-        <v>2755</v>
+        <v>42248</v>
       </c>
       <c r="I14" t="n">
-        <v>2660</v>
+        <v>42064</v>
       </c>
       <c r="J14" t="n">
-        <v>2965</v>
+        <v>43351</v>
       </c>
       <c r="K14" t="n">
-        <v>3103</v>
+        <v>43351</v>
       </c>
       <c r="L14" t="n">
-        <v>3794</v>
+        <v>43890</v>
       </c>
       <c r="M14" t="n">
-        <v>5395</v>
+        <v>44219</v>
       </c>
       <c r="N14" t="n">
-        <v>5984</v>
+        <v>49698</v>
       </c>
       <c r="O14" t="n">
-        <v>6393</v>
+        <v>49711</v>
       </c>
       <c r="P14" t="n">
-        <v>6994</v>
+        <v>49711</v>
       </c>
       <c r="Q14" t="n">
-        <v>6907</v>
+        <v>50455</v>
       </c>
       <c r="R14" t="n">
-        <v>6891</v>
+        <v>50921</v>
+      </c>
+      <c r="S14" t="n">
+        <v>67371</v>
+      </c>
+      <c r="T14" t="n">
+        <v>67524</v>
+      </c>
+      <c r="U14" t="n">
+        <v>67524</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>goodwill</t>
+          <t>intangible assets, net</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35683</v>
+        <v>7579</v>
       </c>
       <c r="C15" t="n">
-        <v>35855</v>
+        <v>8482</v>
       </c>
       <c r="D15" t="n">
-        <v>41577</v>
+        <v>8103</v>
       </c>
       <c r="E15" t="n">
-        <v>41861</v>
+        <v>7750</v>
       </c>
       <c r="F15" t="n">
-        <v>42026</v>
+        <v>7750</v>
       </c>
       <c r="G15" t="n">
-        <v>42113</v>
+        <v>7508</v>
       </c>
       <c r="H15" t="n">
-        <v>42248</v>
+        <v>7126</v>
       </c>
       <c r="I15" t="n">
-        <v>42064</v>
+        <v>6855</v>
       </c>
       <c r="J15" t="n">
-        <v>43351</v>
+        <v>7038</v>
       </c>
       <c r="K15" t="n">
-        <v>43890</v>
+        <v>7038</v>
       </c>
       <c r="L15" t="n">
-        <v>44219</v>
+        <v>6923</v>
       </c>
       <c r="M15" t="n">
-        <v>49698</v>
+        <v>6555</v>
       </c>
       <c r="N15" t="n">
-        <v>49711</v>
+        <v>8127</v>
       </c>
       <c r="O15" t="n">
-        <v>50455</v>
+        <v>7800</v>
       </c>
       <c r="P15" t="n">
-        <v>50921</v>
+        <v>7800</v>
       </c>
       <c r="Q15" t="n">
-        <v>67371</v>
+        <v>7794</v>
       </c>
       <c r="R15" t="n">
-        <v>67524</v>
+        <v>7462</v>
+      </c>
+      <c r="S15" t="n">
+        <v>11348</v>
+      </c>
+      <c r="T15" t="n">
+        <v>11298</v>
+      </c>
+      <c r="U15" t="n">
+        <v>11298</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>intangible assets, net</t>
+          <t>other long-term assets</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8053</v>
+        <v>9792</v>
       </c>
       <c r="C16" t="n">
-        <v>7579</v>
+        <v>10129</v>
       </c>
       <c r="D16" t="n">
-        <v>8482</v>
+        <v>10258</v>
       </c>
       <c r="E16" t="n">
-        <v>8103</v>
+        <v>14723</v>
       </c>
       <c r="F16" t="n">
-        <v>7750</v>
+        <v>14723</v>
       </c>
       <c r="G16" t="n">
-        <v>7508</v>
+        <v>14455</v>
       </c>
       <c r="H16" t="n">
-        <v>7126</v>
+        <v>14630</v>
       </c>
       <c r="I16" t="n">
-        <v>6855</v>
+        <v>13696</v>
       </c>
       <c r="J16" t="n">
-        <v>7038</v>
+        <v>13138</v>
       </c>
       <c r="K16" t="n">
-        <v>6923</v>
+        <v>13138</v>
       </c>
       <c r="L16" t="n">
-        <v>6555</v>
+        <v>13034</v>
       </c>
       <c r="M16" t="n">
-        <v>8127</v>
+        <v>13561</v>
       </c>
       <c r="N16" t="n">
-        <v>7800</v>
+        <v>14427</v>
       </c>
       <c r="O16" t="n">
-        <v>7794</v>
+        <v>15075</v>
       </c>
       <c r="P16" t="n">
-        <v>7462</v>
+        <v>15075</v>
       </c>
       <c r="Q16" t="n">
-        <v>11348</v>
+        <v>21103</v>
       </c>
       <c r="R16" t="n">
-        <v>11298</v>
+        <v>21256</v>
+      </c>
+      <c r="S16" t="n">
+        <v>21845</v>
+      </c>
+      <c r="T16" t="n">
+        <v>21897</v>
+      </c>
+      <c r="U16" t="n">
+        <v>21897</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>other long-term assets</t>
+          <t>total assets</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7442</v>
+        <v>257619</v>
       </c>
       <c r="C17" t="n">
-        <v>9792</v>
+        <v>258859</v>
       </c>
       <c r="D17" t="n">
-        <v>10129</v>
+        <v>263281</v>
       </c>
       <c r="E17" t="n">
-        <v>10258</v>
+        <v>286556</v>
       </c>
       <c r="F17" t="n">
-        <v>14723</v>
+        <v>286556</v>
       </c>
       <c r="G17" t="n">
-        <v>14455</v>
+        <v>278955</v>
       </c>
       <c r="H17" t="n">
-        <v>14630</v>
+        <v>282794</v>
       </c>
       <c r="I17" t="n">
-        <v>13696</v>
+        <v>285449</v>
       </c>
       <c r="J17" t="n">
-        <v>13138</v>
+        <v>301311</v>
       </c>
       <c r="K17" t="n">
-        <v>13034</v>
+        <v>301311</v>
       </c>
       <c r="L17" t="n">
-        <v>13561</v>
+        <v>301001</v>
       </c>
       <c r="M17" t="n">
-        <v>14427</v>
+        <v>304137</v>
       </c>
       <c r="N17" t="n">
-        <v>15075</v>
+        <v>308879</v>
       </c>
       <c r="O17" t="n">
-        <v>21103</v>
+        <v>333779</v>
       </c>
       <c r="P17" t="n">
-        <v>21256</v>
+        <v>333779</v>
       </c>
       <c r="Q17" t="n">
-        <v>21845</v>
+        <v>335418</v>
       </c>
       <c r="R17" t="n">
-        <v>21897</v>
+        <v>340389</v>
+      </c>
+      <c r="S17" t="n">
+        <v>344607</v>
+      </c>
+      <c r="T17" t="n">
+        <v>364840</v>
+      </c>
+      <c r="U17" t="n">
+        <v>364840</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>total assets</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>258848</v>
-      </c>
-      <c r="C18" t="n">
-        <v>257619</v>
-      </c>
-      <c r="D18" t="n">
-        <v>258859</v>
-      </c>
-      <c r="E18" t="n">
-        <v>263281</v>
-      </c>
-      <c r="F18" t="n">
-        <v>286556</v>
-      </c>
-      <c r="G18" t="n">
-        <v>278955</v>
-      </c>
-      <c r="H18" t="n">
-        <v>282794</v>
-      </c>
-      <c r="I18" t="n">
-        <v>285449</v>
-      </c>
-      <c r="J18" t="n">
-        <v>301311</v>
-      </c>
-      <c r="K18" t="n">
-        <v>301001</v>
-      </c>
-      <c r="L18" t="n">
-        <v>304137</v>
-      </c>
-      <c r="M18" t="n">
-        <v>308879</v>
-      </c>
-      <c r="N18" t="n">
-        <v>333779</v>
-      </c>
-      <c r="O18" t="n">
-        <v>335418</v>
-      </c>
-      <c r="P18" t="n">
-        <v>340389</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>344607</v>
-      </c>
-      <c r="R18" t="n">
-        <v>364840</v>
+          <t>current liabilities:</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>current liabilities:</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>accounts payable</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8511</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7563</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7544</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9382</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9382</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8574</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8811</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9246</v>
+      </c>
+      <c r="J19" t="n">
+        <v>12530</v>
+      </c>
+      <c r="K19" t="n">
+        <v>12530</v>
+      </c>
+      <c r="L19" t="n">
+        <v>12509</v>
+      </c>
+      <c r="M19" t="n">
+        <v>12770</v>
+      </c>
+      <c r="N19" t="n">
+        <v>13412</v>
+      </c>
+      <c r="O19" t="n">
+        <v>15163</v>
+      </c>
+      <c r="P19" t="n">
+        <v>15163</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>14832</v>
+      </c>
+      <c r="R19" t="n">
+        <v>15314</v>
+      </c>
+      <c r="S19" t="n">
+        <v>16085</v>
+      </c>
+      <c r="T19" t="n">
+        <v>19000</v>
+      </c>
+      <c r="U19" t="n">
+        <v>19000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>accounts payable</t>
+          <t>current portion of long-term debt</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8617</v>
+        <v>6497</v>
       </c>
       <c r="C20" t="n">
-        <v>8511</v>
+        <v>3516</v>
       </c>
       <c r="D20" t="n">
-        <v>7563</v>
+        <v>6515</v>
       </c>
       <c r="E20" t="n">
-        <v>7544</v>
+        <v>5516</v>
       </c>
       <c r="F20" t="n">
-        <v>9382</v>
+        <v>5516</v>
       </c>
       <c r="G20" t="n">
-        <v>8574</v>
+        <v>3017</v>
       </c>
       <c r="H20" t="n">
-        <v>8811</v>
+        <v>6247</v>
       </c>
       <c r="I20" t="n">
-        <v>9246</v>
+        <v>3748</v>
       </c>
       <c r="J20" t="n">
-        <v>12530</v>
+        <v>3749</v>
       </c>
       <c r="K20" t="n">
-        <v>12509</v>
+        <v>3749</v>
       </c>
       <c r="L20" t="n">
-        <v>12770</v>
+        <v>6497</v>
       </c>
       <c r="M20" t="n">
-        <v>13412</v>
+        <v>5387</v>
       </c>
       <c r="N20" t="n">
-        <v>15163</v>
+        <v>8051</v>
       </c>
       <c r="O20" t="n">
-        <v>14832</v>
+        <v>8072</v>
       </c>
       <c r="P20" t="n">
-        <v>15314</v>
+        <v>8072</v>
       </c>
       <c r="Q20" t="n">
-        <v>16085</v>
+        <v>3249</v>
       </c>
       <c r="R20" t="n">
-        <v>19000</v>
+        <v>4998</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1749</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2749</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2749</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>short-term debt</t>
+          <t>accrued compensation</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+        <v>4271</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4624</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5764</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6830</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6830</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4676</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5421</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6254</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7874</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7874</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5714</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6838</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8032</v>
+      </c>
+      <c r="O21" t="n">
+        <v>10057</v>
+      </c>
+      <c r="P21" t="n">
+        <v>10057</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>6894</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7782</v>
+      </c>
+      <c r="S21" t="n">
+        <v>9067</v>
+      </c>
+      <c r="T21" t="n">
+        <v>10661</v>
+      </c>
+      <c r="U21" t="n">
+        <v>10661</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>current portion of long-term debt</t>
+          <t>short-term income taxes</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3998</v>
+        <v>2341</v>
       </c>
       <c r="C22" t="n">
-        <v>6497</v>
+        <v>2033</v>
       </c>
       <c r="D22" t="n">
-        <v>3516</v>
+        <v>1950</v>
       </c>
       <c r="E22" t="n">
-        <v>6515</v>
+        <v>5665</v>
       </c>
       <c r="F22" t="n">
-        <v>5516</v>
+        <v>5665</v>
       </c>
       <c r="G22" t="n">
-        <v>3017</v>
+        <v>3440</v>
       </c>
       <c r="H22" t="n">
-        <v>6247</v>
+        <v>2687</v>
       </c>
       <c r="I22" t="n">
-        <v>3748</v>
+        <v>3296</v>
       </c>
       <c r="J22" t="n">
-        <v>3749</v>
+        <v>2130</v>
       </c>
       <c r="K22" t="n">
-        <v>6497</v>
+        <v>2130</v>
       </c>
       <c r="L22" t="n">
-        <v>5387</v>
+        <v>2384</v>
       </c>
       <c r="M22" t="n">
-        <v>8051</v>
+        <v>1562</v>
       </c>
       <c r="N22" t="n">
-        <v>8072</v>
+        <v>2165</v>
       </c>
       <c r="O22" t="n">
-        <v>3249</v>
+        <v>2174</v>
       </c>
       <c r="P22" t="n">
-        <v>4998</v>
+        <v>2174</v>
       </c>
       <c r="Q22" t="n">
-        <v>1749</v>
+        <v>6272</v>
       </c>
       <c r="R22" t="n">
-        <v>2749</v>
+        <v>3731</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4646</v>
+      </c>
+      <c r="T22" t="n">
+        <v>4067</v>
+      </c>
+      <c r="U22" t="n">
+        <v>4067</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>accrued compensation</t>
+          <t>short-term unearned revenue</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6103</v>
+        <v>26704</v>
       </c>
       <c r="C23" t="n">
-        <v>4271</v>
+        <v>24285</v>
       </c>
       <c r="D23" t="n">
-        <v>4624</v>
+        <v>24251</v>
       </c>
       <c r="E23" t="n">
-        <v>5764</v>
+        <v>32676</v>
       </c>
       <c r="F23" t="n">
-        <v>6830</v>
+        <v>32676</v>
       </c>
       <c r="G23" t="n">
-        <v>4676</v>
+        <v>29904</v>
       </c>
       <c r="H23" t="n">
-        <v>5421</v>
+        <v>27343</v>
       </c>
       <c r="I23" t="n">
-        <v>6254</v>
+        <v>27012</v>
       </c>
       <c r="J23" t="n">
-        <v>7874</v>
+        <v>36000</v>
       </c>
       <c r="K23" t="n">
-        <v>5714</v>
+        <v>36000</v>
       </c>
       <c r="L23" t="n">
-        <v>6838</v>
+        <v>33476</v>
       </c>
       <c r="M23" t="n">
-        <v>8032</v>
+        <v>30402</v>
       </c>
       <c r="N23" t="n">
-        <v>10057</v>
+        <v>30083</v>
       </c>
       <c r="O23" t="n">
-        <v>6894</v>
+        <v>41525</v>
       </c>
       <c r="P23" t="n">
-        <v>7782</v>
+        <v>41525</v>
       </c>
       <c r="Q23" t="n">
-        <v>9067</v>
+        <v>38465</v>
       </c>
       <c r="R23" t="n">
-        <v>10661</v>
+        <v>34001</v>
+      </c>
+      <c r="S23" t="n">
+        <v>34027</v>
+      </c>
+      <c r="T23" t="n">
+        <v>45538</v>
+      </c>
+      <c r="U23" t="n">
+        <v>45538</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>short-term income taxes</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>2121</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2341</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2033</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1950</v>
-      </c>
-      <c r="F24" t="n">
-        <v>5665</v>
-      </c>
+          <t>other current liabilities</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
-        <v>3440</v>
+        <v>8507</v>
       </c>
       <c r="H24" t="n">
-        <v>2687</v>
+        <v>9131</v>
       </c>
       <c r="I24" t="n">
-        <v>3296</v>
+        <v>9151</v>
       </c>
       <c r="J24" t="n">
-        <v>2130</v>
+        <v>10027</v>
       </c>
       <c r="K24" t="n">
-        <v>2384</v>
+        <v>10027</v>
       </c>
       <c r="L24" t="n">
-        <v>1562</v>
+        <v>9476</v>
       </c>
       <c r="M24" t="n">
-        <v>2165</v>
+        <v>10527</v>
       </c>
       <c r="N24" t="n">
-        <v>2174</v>
+        <v>10450</v>
       </c>
       <c r="O24" t="n">
-        <v>6272</v>
+        <v>11666</v>
       </c>
       <c r="P24" t="n">
-        <v>3731</v>
+        <v>11666</v>
       </c>
       <c r="Q24" t="n">
-        <v>4646</v>
+        <v>10816</v>
       </c>
       <c r="R24" t="n">
-        <v>4067</v>
+        <v>11684</v>
+      </c>
+      <c r="S24" t="n">
+        <v>11865</v>
+      </c>
+      <c r="T24" t="n">
+        <v>13067</v>
+      </c>
+      <c r="U24" t="n">
+        <v>13067</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>short-term unearned revenue</t>
+          <t>other</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28905</v>
+        <v>7953</v>
       </c>
       <c r="C25" t="n">
-        <v>26704</v>
+        <v>8297</v>
       </c>
       <c r="D25" t="n">
-        <v>24285</v>
+        <v>7837</v>
       </c>
       <c r="E25" t="n">
-        <v>24251</v>
+        <v>9351</v>
       </c>
       <c r="F25" t="n">
-        <v>32676</v>
-      </c>
-      <c r="G25" t="n">
-        <v>29904</v>
-      </c>
-      <c r="H25" t="n">
-        <v>27343</v>
-      </c>
-      <c r="I25" t="n">
-        <v>27012</v>
-      </c>
-      <c r="J25" t="n">
-        <v>36000</v>
-      </c>
-      <c r="K25" t="n">
-        <v>33476</v>
-      </c>
-      <c r="L25" t="n">
-        <v>30402</v>
-      </c>
-      <c r="M25" t="n">
-        <v>30083</v>
-      </c>
-      <c r="N25" t="n">
-        <v>41525</v>
-      </c>
-      <c r="O25" t="n">
-        <v>38465</v>
-      </c>
-      <c r="P25" t="n">
-        <v>34001</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>34027</v>
-      </c>
-      <c r="R25" t="n">
-        <v>45538</v>
-      </c>
+        <v>9351</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>total current liabilities</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8744</v>
+        <v>56277</v>
       </c>
       <c r="C26" t="n">
-        <v>7953</v>
+        <v>50318</v>
       </c>
       <c r="D26" t="n">
-        <v>8297</v>
+        <v>53861</v>
       </c>
       <c r="E26" t="n">
-        <v>7837</v>
+        <v>69420</v>
       </c>
       <c r="F26" t="n">
-        <v>9351</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+        <v>69420</v>
+      </c>
+      <c r="G26" t="n">
+        <v>58118</v>
+      </c>
+      <c r="H26" t="n">
+        <v>59640</v>
+      </c>
+      <c r="I26" t="n">
+        <v>58707</v>
+      </c>
+      <c r="J26" t="n">
+        <v>72310</v>
+      </c>
+      <c r="K26" t="n">
+        <v>72310</v>
+      </c>
+      <c r="L26" t="n">
+        <v>70056</v>
+      </c>
+      <c r="M26" t="n">
+        <v>67486</v>
+      </c>
+      <c r="N26" t="n">
+        <v>72193</v>
+      </c>
+      <c r="O26" t="n">
+        <v>88657</v>
+      </c>
+      <c r="P26" t="n">
+        <v>88657</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>80528</v>
+      </c>
+      <c r="R26" t="n">
+        <v>77510</v>
+      </c>
+      <c r="S26" t="n">
+        <v>77439</v>
+      </c>
+      <c r="T26" t="n">
+        <v>95082</v>
+      </c>
+      <c r="U26" t="n">
+        <v>95082</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>other current liabilities</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+          <t>long-term debt</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>69733</v>
+      </c>
+      <c r="C27" t="n">
+        <v>69653</v>
+      </c>
+      <c r="D27" t="n">
+        <v>66585</v>
+      </c>
+      <c r="E27" t="n">
+        <v>66662</v>
+      </c>
+      <c r="F27" t="n">
+        <v>66662</v>
+      </c>
       <c r="G27" t="n">
-        <v>8507</v>
+        <v>66478</v>
       </c>
       <c r="H27" t="n">
-        <v>9131</v>
+        <v>63361</v>
       </c>
       <c r="I27" t="n">
-        <v>9151</v>
+        <v>62862</v>
       </c>
       <c r="J27" t="n">
-        <v>10027</v>
+        <v>59578</v>
       </c>
       <c r="K27" t="n">
-        <v>9476</v>
+        <v>59578</v>
       </c>
       <c r="L27" t="n">
-        <v>10527</v>
+        <v>57055</v>
       </c>
       <c r="M27" t="n">
-        <v>10450</v>
+        <v>55136</v>
       </c>
       <c r="N27" t="n">
-        <v>11666</v>
+        <v>50007</v>
       </c>
       <c r="O27" t="n">
-        <v>10816</v>
+        <v>50074</v>
       </c>
       <c r="P27" t="n">
-        <v>11684</v>
+        <v>50074</v>
       </c>
       <c r="Q27" t="n">
-        <v>11865</v>
+        <v>50039</v>
       </c>
       <c r="R27" t="n">
-        <v>13067</v>
+        <v>48260</v>
+      </c>
+      <c r="S27" t="n">
+        <v>48177</v>
+      </c>
+      <c r="T27" t="n">
+        <v>47032</v>
+      </c>
+      <c r="U27" t="n">
+        <v>47032</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>total current liabilities</t>
+          <t>long-term income taxes</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>58488</v>
+        <v>28936</v>
       </c>
       <c r="C28" t="n">
-        <v>56277</v>
+        <v>29161</v>
       </c>
       <c r="D28" t="n">
-        <v>50318</v>
+        <v>29514</v>
       </c>
       <c r="E28" t="n">
-        <v>53861</v>
+        <v>29612</v>
       </c>
       <c r="F28" t="n">
-        <v>69420</v>
+        <v>29612</v>
       </c>
       <c r="G28" t="n">
-        <v>58118</v>
+        <v>28457</v>
       </c>
       <c r="H28" t="n">
-        <v>59640</v>
+        <v>28754</v>
       </c>
       <c r="I28" t="n">
-        <v>58707</v>
+        <v>28888</v>
       </c>
       <c r="J28" t="n">
-        <v>72310</v>
+        <v>29432</v>
       </c>
       <c r="K28" t="n">
-        <v>70056</v>
+        <v>29432</v>
       </c>
       <c r="L28" t="n">
-        <v>67486</v>
+        <v>28204</v>
       </c>
       <c r="M28" t="n">
-        <v>72193</v>
+        <v>26701</v>
       </c>
       <c r="N28" t="n">
-        <v>88657</v>
+        <v>27157</v>
       </c>
       <c r="O28" t="n">
-        <v>80528</v>
+        <v>27190</v>
       </c>
       <c r="P28" t="n">
-        <v>77510</v>
+        <v>27190</v>
       </c>
       <c r="Q28" t="n">
-        <v>77439</v>
+        <v>25715</v>
       </c>
       <c r="R28" t="n">
-        <v>95082</v>
+        <v>26121</v>
+      </c>
+      <c r="S28" t="n">
+        <v>26483</v>
+      </c>
+      <c r="T28" t="n">
+        <v>26069</v>
+      </c>
+      <c r="U28" t="n">
+        <v>26069</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>long-term debt</t>
+          <t>long-term unearned revenue</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>72242</v>
+        <v>3538</v>
       </c>
       <c r="C29" t="n">
-        <v>69733</v>
+        <v>3799</v>
       </c>
       <c r="D29" t="n">
-        <v>69653</v>
+        <v>3884</v>
       </c>
       <c r="E29" t="n">
-        <v>66585</v>
+        <v>4530</v>
       </c>
       <c r="F29" t="n">
-        <v>66662</v>
+        <v>4530</v>
       </c>
       <c r="G29" t="n">
-        <v>66478</v>
+        <v>4122</v>
       </c>
       <c r="H29" t="n">
-        <v>63361</v>
+        <v>3878</v>
       </c>
       <c r="I29" t="n">
-        <v>62862</v>
+        <v>3385</v>
       </c>
       <c r="J29" t="n">
-        <v>59578</v>
+        <v>3180</v>
       </c>
       <c r="K29" t="n">
-        <v>57055</v>
+        <v>3180</v>
       </c>
       <c r="L29" t="n">
-        <v>55136</v>
+        <v>2829</v>
       </c>
       <c r="M29" t="n">
-        <v>50007</v>
+        <v>2985</v>
       </c>
       <c r="N29" t="n">
-        <v>50074</v>
+        <v>2631</v>
       </c>
       <c r="O29" t="n">
-        <v>50039</v>
+        <v>2616</v>
       </c>
       <c r="P29" t="n">
-        <v>48260</v>
+        <v>2616</v>
       </c>
       <c r="Q29" t="n">
-        <v>48177</v>
+        <v>2550</v>
       </c>
       <c r="R29" t="n">
-        <v>47032</v>
+        <v>2768</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2769</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2870</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2870</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>long-term income taxes</t>
+          <t>deferred income taxes</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>30265</v>
+        <v>1977</v>
       </c>
       <c r="C30" t="n">
-        <v>28936</v>
+        <v>2062</v>
       </c>
       <c r="D30" t="n">
-        <v>29161</v>
+        <v>1838</v>
       </c>
       <c r="E30" t="n">
-        <v>29514</v>
+        <v>233</v>
       </c>
       <c r="F30" t="n">
-        <v>29612</v>
+        <v>233</v>
       </c>
       <c r="G30" t="n">
-        <v>28457</v>
+        <v>234</v>
       </c>
       <c r="H30" t="n">
-        <v>28754</v>
+        <v>222</v>
       </c>
       <c r="I30" t="n">
-        <v>28888</v>
+        <v>185</v>
       </c>
       <c r="J30" t="n">
-        <v>29432</v>
+        <v>204</v>
       </c>
       <c r="K30" t="n">
-        <v>28204</v>
+        <v>204</v>
       </c>
       <c r="L30" t="n">
-        <v>26701</v>
+        <v>187</v>
       </c>
       <c r="M30" t="n">
-        <v>27157</v>
+        <v>174</v>
       </c>
       <c r="N30" t="n">
-        <v>27190</v>
+        <v>173</v>
       </c>
       <c r="O30" t="n">
-        <v>25715</v>
+        <v>198</v>
       </c>
       <c r="P30" t="n">
-        <v>26121</v>
+        <v>198</v>
       </c>
       <c r="Q30" t="n">
-        <v>26483</v>
+        <v>212</v>
       </c>
       <c r="R30" t="n">
-        <v>26069</v>
+        <v>199</v>
+      </c>
+      <c r="S30" t="n">
+        <v>304</v>
+      </c>
+      <c r="T30" t="n">
+        <v>230</v>
+      </c>
+      <c r="U30" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>long-term unearned revenue</t>
+          <t>operating lease liabilities</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3815</v>
+        <v>5652</v>
       </c>
       <c r="C31" t="n">
-        <v>3538</v>
+        <v>5683</v>
       </c>
       <c r="D31" t="n">
-        <v>3799</v>
+        <v>5972</v>
       </c>
       <c r="E31" t="n">
-        <v>3884</v>
+        <v>6188</v>
       </c>
       <c r="F31" t="n">
-        <v>4530</v>
+        <v>6188</v>
       </c>
       <c r="G31" t="n">
-        <v>4122</v>
+        <v>6659</v>
       </c>
       <c r="H31" t="n">
-        <v>3878</v>
+        <v>7172</v>
       </c>
       <c r="I31" t="n">
-        <v>3385</v>
+        <v>7248</v>
       </c>
       <c r="J31" t="n">
-        <v>3180</v>
+        <v>7671</v>
       </c>
       <c r="K31" t="n">
-        <v>2829</v>
+        <v>7671</v>
       </c>
       <c r="L31" t="n">
-        <v>2985</v>
+        <v>7753</v>
       </c>
       <c r="M31" t="n">
-        <v>2631</v>
+        <v>8875</v>
       </c>
       <c r="N31" t="n">
-        <v>2616</v>
+        <v>9272</v>
       </c>
       <c r="O31" t="n">
-        <v>2550</v>
+        <v>9629</v>
       </c>
       <c r="P31" t="n">
-        <v>2768</v>
+        <v>9629</v>
       </c>
       <c r="Q31" t="n">
-        <v>2769</v>
+        <v>10050</v>
       </c>
       <c r="R31" t="n">
-        <v>2870</v>
+        <v>10774</v>
+      </c>
+      <c r="S31" t="n">
+        <v>11357</v>
+      </c>
+      <c r="T31" t="n">
+        <v>11489</v>
+      </c>
+      <c r="U31" t="n">
+        <v>11489</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>deferred income taxes</t>
+          <t>other long-term liabilities</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>541</v>
+        <v>5539</v>
       </c>
       <c r="C32" t="n">
-        <v>1977</v>
+        <v>6055</v>
       </c>
       <c r="D32" t="n">
-        <v>2062</v>
+        <v>6763</v>
       </c>
       <c r="E32" t="n">
-        <v>1838</v>
+        <v>7581</v>
       </c>
       <c r="F32" t="n">
-        <v>233</v>
+        <v>7581</v>
       </c>
       <c r="G32" t="n">
-        <v>234</v>
+        <v>8826</v>
       </c>
       <c r="H32" t="n">
-        <v>222</v>
+        <v>9658</v>
       </c>
       <c r="I32" t="n">
-        <v>185</v>
+        <v>9673</v>
       </c>
       <c r="J32" t="n">
-        <v>204</v>
+        <v>10632</v>
       </c>
       <c r="K32" t="n">
-        <v>187</v>
+        <v>10632</v>
       </c>
       <c r="L32" t="n">
-        <v>174</v>
+        <v>11525</v>
       </c>
       <c r="M32" t="n">
-        <v>173</v>
+        <v>12544</v>
       </c>
       <c r="N32" t="n">
-        <v>198</v>
+        <v>12941</v>
       </c>
       <c r="O32" t="n">
-        <v>212</v>
+        <v>13427</v>
       </c>
       <c r="P32" t="n">
-        <v>199</v>
+        <v>13427</v>
       </c>
       <c r="Q32" t="n">
-        <v>304</v>
+        <v>14346</v>
       </c>
       <c r="R32" t="n">
-        <v>230</v>
+        <v>14747</v>
+      </c>
+      <c r="S32" t="n">
+        <v>15154</v>
+      </c>
+      <c r="T32" t="n">
+        <v>15526</v>
+      </c>
+      <c r="U32" t="n">
+        <v>15526</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>operating lease liabilities</t>
+          <t>total liabilities</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5568</v>
+        <v>171652</v>
       </c>
       <c r="C33" t="n">
-        <v>5652</v>
+        <v>166731</v>
       </c>
       <c r="D33" t="n">
-        <v>5683</v>
+        <v>168417</v>
       </c>
       <c r="E33" t="n">
-        <v>5972</v>
+        <v>184226</v>
       </c>
       <c r="F33" t="n">
-        <v>6188</v>
+        <v>184226</v>
       </c>
       <c r="G33" t="n">
-        <v>6659</v>
+        <v>172894</v>
       </c>
       <c r="H33" t="n">
-        <v>7172</v>
+        <v>172685</v>
       </c>
       <c r="I33" t="n">
-        <v>7248</v>
+        <v>170948</v>
       </c>
       <c r="J33" t="n">
-        <v>7671</v>
+        <v>183007</v>
       </c>
       <c r="K33" t="n">
-        <v>7753</v>
+        <v>183007</v>
       </c>
       <c r="L33" t="n">
-        <v>8875</v>
+        <v>177609</v>
       </c>
       <c r="M33" t="n">
-        <v>9272</v>
+        <v>173901</v>
       </c>
       <c r="N33" t="n">
-        <v>9629</v>
+        <v>174374</v>
       </c>
       <c r="O33" t="n">
-        <v>10050</v>
+        <v>191791</v>
       </c>
       <c r="P33" t="n">
-        <v>10774</v>
+        <v>191791</v>
       </c>
       <c r="Q33" t="n">
-        <v>11357</v>
+        <v>183440</v>
       </c>
       <c r="R33" t="n">
-        <v>11489</v>
+        <v>180379</v>
+      </c>
+      <c r="S33" t="n">
+        <v>181683</v>
+      </c>
+      <c r="T33" t="n">
+        <v>198298</v>
+      </c>
+      <c r="U33" t="n">
+        <v>198298</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>other long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>5211</v>
-      </c>
-      <c r="C34" t="n">
-        <v>5539</v>
-      </c>
-      <c r="D34" t="n">
-        <v>6055</v>
-      </c>
-      <c r="E34" t="n">
-        <v>6763</v>
-      </c>
-      <c r="F34" t="n">
-        <v>7581</v>
-      </c>
-      <c r="G34" t="n">
-        <v>8826</v>
-      </c>
-      <c r="H34" t="n">
-        <v>9658</v>
-      </c>
-      <c r="I34" t="n">
-        <v>9673</v>
-      </c>
-      <c r="J34" t="n">
-        <v>10632</v>
-      </c>
-      <c r="K34" t="n">
-        <v>11525</v>
-      </c>
-      <c r="L34" t="n">
-        <v>12544</v>
-      </c>
-      <c r="M34" t="n">
-        <v>12941</v>
-      </c>
-      <c r="N34" t="n">
-        <v>13427</v>
-      </c>
-      <c r="O34" t="n">
-        <v>14346</v>
-      </c>
-      <c r="P34" t="n">
-        <v>14747</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>15154</v>
-      </c>
-      <c r="R34" t="n">
-        <v>15526</v>
+          <t>commitments and contingencies</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>total liabilities</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>176130</v>
-      </c>
-      <c r="C35" t="n">
-        <v>171652</v>
-      </c>
-      <c r="D35" t="n">
-        <v>166731</v>
-      </c>
-      <c r="E35" t="n">
-        <v>168417</v>
-      </c>
-      <c r="F35" t="n">
-        <v>184226</v>
-      </c>
-      <c r="G35" t="n">
-        <v>172894</v>
-      </c>
-      <c r="H35" t="n">
-        <v>172685</v>
-      </c>
-      <c r="I35" t="n">
-        <v>170948</v>
-      </c>
-      <c r="J35" t="n">
-        <v>183007</v>
-      </c>
-      <c r="K35" t="n">
-        <v>177609</v>
-      </c>
-      <c r="L35" t="n">
-        <v>173901</v>
-      </c>
-      <c r="M35" t="n">
-        <v>174374</v>
-      </c>
-      <c r="N35" t="n">
-        <v>191791</v>
-      </c>
-      <c r="O35" t="n">
-        <v>183440</v>
-      </c>
-      <c r="P35" t="n">
-        <v>180379</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>181683</v>
-      </c>
-      <c r="R35" t="n">
-        <v>198298</v>
+          <t>stockholders’ equity:</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>commitments and contingencies</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>common stock and paid-in capital – shares authorized; outstanding and</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>71303</v>
+      </c>
+      <c r="C36" t="n">
+        <v>77556</v>
+      </c>
+      <c r="D36" t="n">
+        <v>77791</v>
+      </c>
+      <c r="E36" t="n">
+        <v>78520</v>
+      </c>
+      <c r="F36" t="n">
+        <v>78520</v>
+      </c>
+      <c r="G36" t="n">
+        <v>78882</v>
+      </c>
+      <c r="H36" t="n">
+        <v>79625</v>
+      </c>
+      <c r="I36" t="n">
+        <v>79813</v>
+      </c>
+      <c r="J36" t="n">
+        <v>80552</v>
+      </c>
+      <c r="K36" t="n">
+        <v>80552</v>
+      </c>
+      <c r="L36" t="n">
+        <v>81089</v>
+      </c>
+      <c r="M36" t="n">
+        <v>81896</v>
+      </c>
+      <c r="N36" t="n">
+        <v>82308</v>
+      </c>
+      <c r="O36" t="n">
+        <v>83111</v>
+      </c>
+      <c r="P36" t="n">
+        <v>83111</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>83751</v>
+      </c>
+      <c r="R36" t="n">
+        <v>84528</v>
+      </c>
+      <c r="S36" t="n">
+        <v>85767</v>
+      </c>
+      <c r="T36" t="n">
+        <v>86939</v>
+      </c>
+      <c r="U36" t="n">
+        <v>86939</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>stockholders’ equity:</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>retained earnings</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>17279</v>
+      </c>
+      <c r="C37" t="n">
+        <v>16585</v>
+      </c>
+      <c r="D37" t="n">
+        <v>18338</v>
+      </c>
+      <c r="E37" t="n">
+        <v>24150</v>
+      </c>
+      <c r="F37" t="n">
+        <v>24150</v>
+      </c>
+      <c r="G37" t="n">
+        <v>27240</v>
+      </c>
+      <c r="H37" t="n">
+        <v>30739</v>
+      </c>
+      <c r="I37" t="n">
+        <v>32012</v>
+      </c>
+      <c r="J37" t="n">
+        <v>34566</v>
+      </c>
+      <c r="K37" t="n">
+        <v>34566</v>
+      </c>
+      <c r="L37" t="n">
+        <v>39193</v>
+      </c>
+      <c r="M37" t="n">
+        <v>44973</v>
+      </c>
+      <c r="N37" t="n">
+        <v>50735</v>
+      </c>
+      <c r="O37" t="n">
+        <v>57055</v>
+      </c>
+      <c r="P37" t="n">
+        <v>57055</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>66944</v>
+      </c>
+      <c r="R37" t="n">
+        <v>75045</v>
+      </c>
+      <c r="S37" t="n">
+        <v>79633</v>
+      </c>
+      <c r="T37" t="n">
+        <v>84281</v>
+      </c>
+      <c r="U37" t="n">
+        <v>84281</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>common stock and paid-in capital – shares authorized; outstanding and</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>71223</v>
-      </c>
-      <c r="C38" t="n">
-        <v>71303</v>
-      </c>
-      <c r="D38" t="n">
-        <v>77556</v>
-      </c>
-      <c r="E38" t="n">
-        <v>77791</v>
-      </c>
-      <c r="F38" t="n">
-        <v>78520</v>
-      </c>
-      <c r="G38" t="n">
-        <v>78882</v>
-      </c>
-      <c r="H38" t="n">
-        <v>79625</v>
-      </c>
+          <t>accumulated other comprehensive income</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>79813</v>
+        <v>2676</v>
       </c>
       <c r="J38" t="n">
-        <v>80552</v>
+        <v>3186</v>
       </c>
       <c r="K38" t="n">
-        <v>81089</v>
+        <v>3186</v>
       </c>
       <c r="L38" t="n">
-        <v>81896</v>
+        <v>3110</v>
       </c>
       <c r="M38" t="n">
-        <v>82308</v>
+        <v>3367</v>
       </c>
       <c r="N38" t="n">
-        <v>83111</v>
+        <v>1462</v>
       </c>
       <c r="O38" t="n">
-        <v>83751</v>
+        <v>1822</v>
       </c>
       <c r="P38" t="n">
-        <v>84528</v>
+        <v>1822</v>
       </c>
       <c r="Q38" t="n">
-        <v>85767</v>
+        <v>1283</v>
       </c>
       <c r="R38" t="n">
-        <v>86939</v>
+        <v>437</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-2476</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-4678</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-4678</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>retained earnings</t>
+          <t>accumulated other comprehensive loss</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>13682</v>
+        <v>-2615</v>
       </c>
       <c r="C39" t="n">
-        <v>17279</v>
+        <v>-2013</v>
       </c>
       <c r="D39" t="n">
-        <v>16585</v>
+        <v>-1265</v>
       </c>
       <c r="E39" t="n">
-        <v>18338</v>
+        <v>-340</v>
       </c>
       <c r="F39" t="n">
-        <v>24150</v>
+        <v>-340</v>
       </c>
       <c r="G39" t="n">
-        <v>27240</v>
+        <v>-61</v>
       </c>
       <c r="H39" t="n">
-        <v>30739</v>
-      </c>
-      <c r="I39" t="n">
-        <v>32012</v>
-      </c>
-      <c r="J39" t="n">
-        <v>34566</v>
-      </c>
-      <c r="K39" t="n">
-        <v>39193</v>
-      </c>
-      <c r="L39" t="n">
-        <v>44973</v>
-      </c>
-      <c r="M39" t="n">
-        <v>50735</v>
-      </c>
-      <c r="N39" t="n">
-        <v>57055</v>
-      </c>
-      <c r="O39" t="n">
-        <v>66944</v>
-      </c>
-      <c r="P39" t="n">
-        <v>75045</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>79633</v>
-      </c>
-      <c r="R39" t="n">
-        <v>84281</v>
-      </c>
+        <v>-255</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>accumulated other comprehensive income</t>
+          <t>total stockholders’ equity</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-2187</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+        <v>85967</v>
+      </c>
+      <c r="C40" t="n">
+        <v>92128</v>
+      </c>
+      <c r="D40" t="n">
+        <v>94864</v>
+      </c>
+      <c r="E40" t="n">
+        <v>102330</v>
+      </c>
+      <c r="F40" t="n">
+        <v>102330</v>
+      </c>
+      <c r="G40" t="n">
+        <v>106061</v>
+      </c>
+      <c r="H40" t="n">
+        <v>110109</v>
+      </c>
       <c r="I40" t="n">
-        <v>2676</v>
+        <v>114501</v>
       </c>
       <c r="J40" t="n">
-        <v>3186</v>
+        <v>118304</v>
       </c>
       <c r="K40" t="n">
-        <v>3110</v>
+        <v>118304</v>
       </c>
       <c r="L40" t="n">
-        <v>3367</v>
+        <v>123392</v>
       </c>
       <c r="M40" t="n">
-        <v>1462</v>
+        <v>130236</v>
       </c>
       <c r="N40" t="n">
-        <v>1822</v>
+        <v>134505</v>
       </c>
       <c r="O40" t="n">
-        <v>1283</v>
+        <v>141988</v>
       </c>
       <c r="P40" t="n">
-        <v>437</v>
+        <v>141988</v>
       </c>
       <c r="Q40" t="n">
-        <v>-2476</v>
+        <v>151978</v>
       </c>
       <c r="R40" t="n">
-        <v>-4678</v>
+        <v>160010</v>
+      </c>
+      <c r="S40" t="n">
+        <v>162924</v>
+      </c>
+      <c r="T40" t="n">
+        <v>166542</v>
+      </c>
+      <c r="U40" t="n">
+        <v>166542</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>accumulated other comprehensive loss</t>
+          <t>total liabilities and stockholders’ equity</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="n">
-        <v>-2615</v>
-      </c>
-      <c r="D41" t="n">
-        <v>-2013</v>
-      </c>
-      <c r="E41" t="n">
-        <v>-1265</v>
-      </c>
-      <c r="F41" t="n">
-        <v>-340</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-61</v>
-      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>-255</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>282794</v>
+      </c>
+      <c r="I41" t="n">
+        <v>285449</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>301001</v>
+      </c>
+      <c r="M41" t="n">
+        <v>304137</v>
+      </c>
+      <c r="N41" t="n">
+        <v>308879</v>
+      </c>
+      <c r="O41" t="n">
+        <v>333779</v>
+      </c>
+      <c r="P41" t="n">
+        <v>333779</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>335418</v>
+      </c>
+      <c r="R41" t="n">
+        <v>340389</v>
+      </c>
+      <c r="S41" t="n">
+        <v>344607</v>
+      </c>
+      <c r="T41" t="n">
+        <v>364840</v>
+      </c>
+      <c r="U41" t="n">
+        <v>364840</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>total stockholders’ equity</t>
+          <t>total liabilities and stockholders' equity</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>82718</v>
+        <v>257619</v>
       </c>
       <c r="C42" t="n">
-        <v>85967</v>
+        <v>258859</v>
       </c>
       <c r="D42" t="n">
-        <v>92128</v>
+        <v>263281</v>
       </c>
       <c r="E42" t="n">
-        <v>94864</v>
+        <v>286556</v>
       </c>
       <c r="F42" t="n">
-        <v>102330</v>
+        <v>286556</v>
       </c>
       <c r="G42" t="n">
-        <v>106061</v>
-      </c>
-      <c r="H42" t="n">
-        <v>110109</v>
-      </c>
-      <c r="I42" t="n">
-        <v>114501</v>
-      </c>
+        <v>278955</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>118304</v>
+        <v>301311</v>
       </c>
       <c r="K42" t="n">
-        <v>123392</v>
-      </c>
-      <c r="L42" t="n">
-        <v>130236</v>
-      </c>
-      <c r="M42" t="n">
-        <v>134505</v>
-      </c>
-      <c r="N42" t="n">
-        <v>141988</v>
-      </c>
-      <c r="O42" t="n">
-        <v>151978</v>
-      </c>
-      <c r="P42" t="n">
-        <v>160010</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>162924</v>
-      </c>
-      <c r="R42" t="n">
-        <v>166542</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>total liabilities and stockholders' equity</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>258848</v>
-      </c>
-      <c r="C43" t="n">
-        <v>257619</v>
-      </c>
-      <c r="D43" t="n">
-        <v>258859</v>
-      </c>
-      <c r="E43" t="n">
-        <v>263281</v>
-      </c>
-      <c r="F43" t="n">
-        <v>286556</v>
-      </c>
-      <c r="G43" t="n">
-        <v>278955</v>
-      </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
         <v>301311</v>
       </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>total liabilities and stockholders’ equity</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>282794</v>
-      </c>
-      <c r="I44" t="n">
-        <v>285449</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>301001</v>
-      </c>
-      <c r="L44" t="n">
-        <v>304137</v>
-      </c>
-      <c r="M44" t="n">
-        <v>308879</v>
-      </c>
-      <c r="N44" t="n">
-        <v>333779</v>
-      </c>
-      <c r="O44" t="n">
-        <v>335418</v>
-      </c>
-      <c r="P44" t="n">
-        <v>340389</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>344607</v>
-      </c>
-      <c r="R44" t="n">
-        <v>364840</v>
-      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2773,7 +3083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X42"/>
+  <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2789,22 +3099,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year Ended 2018</t>
+          <t>Q1 2019</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Q1 2019</t>
+          <t>Q2 2019</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Q2 2019</t>
+          <t>Q3 2019</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Q3 2019</t>
+          <t>Q4 2019</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -2819,22 +3129,22 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Year Ended 2019</t>
+          <t>Q1 2020</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q1 2020</t>
+          <t>Q2 2020</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Q2 2020</t>
+          <t>Q3 2020</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Q3 2020</t>
+          <t>Q4 2020</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -2849,22 +3159,22 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Year Ended 2020</t>
+          <t>Q1 2021</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Q1 2021</t>
+          <t>Q2 2021</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Q2 2021</t>
+          <t>Q3 2021</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Q3 2021</t>
+          <t>Q4 2021</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -2879,22 +3189,22 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Year Ended 2021</t>
+          <t>Q1 2022</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Q1 2022</t>
+          <t>Q2 2022</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Q2 2022</t>
+          <t>Q3 2022</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Q3 2022</t>
+          <t>Q4 2022</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -2942,7 +3252,11 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="X2" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -2956,16 +3270,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11946</v>
+        <v>15137</v>
       </c>
       <c r="C3" t="n">
-        <v>15137</v>
+        <v>6638</v>
       </c>
       <c r="D3" t="n">
-        <v>6638</v>
+        <v>11212</v>
       </c>
       <c r="E3" t="n">
-        <v>11212</v>
+        <v>11356</v>
       </c>
       <c r="F3" t="n">
         <v>11356</v>
@@ -2976,16 +3290,16 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>11356</v>
+        <v>13117</v>
       </c>
       <c r="I3" t="n">
-        <v>13117</v>
+        <v>8864</v>
       </c>
       <c r="J3" t="n">
-        <v>8864</v>
+        <v>11710</v>
       </c>
       <c r="K3" t="n">
-        <v>11710</v>
+        <v>13576</v>
       </c>
       <c r="L3" t="n">
         <v>13576</v>
@@ -2996,16 +3310,16 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>13576</v>
+        <v>17205</v>
       </c>
       <c r="O3" t="n">
-        <v>17205</v>
+        <v>14432</v>
       </c>
       <c r="P3" t="n">
-        <v>14432</v>
+        <v>13702</v>
       </c>
       <c r="Q3" t="n">
-        <v>13702</v>
+        <v>14224</v>
       </c>
       <c r="R3" t="n">
         <v>14224</v>
@@ -3016,16 +3330,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>14224</v>
+        <v>19165</v>
       </c>
       <c r="U3" t="n">
-        <v>19165</v>
+        <v>20604</v>
       </c>
       <c r="V3" t="n">
-        <v>20604</v>
+        <v>12498</v>
       </c>
       <c r="W3" t="n">
-        <v>12498</v>
+        <v>13931</v>
       </c>
       <c r="X3" t="n">
         <v>13931</v>
@@ -3038,16 +3352,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121822</v>
+        <v>120743</v>
       </c>
       <c r="C4" t="n">
-        <v>120743</v>
+        <v>121024</v>
       </c>
       <c r="D4" t="n">
-        <v>121024</v>
+        <v>120406</v>
       </c>
       <c r="E4" t="n">
-        <v>120406</v>
+        <v>122463</v>
       </c>
       <c r="F4" t="n">
         <v>122463</v>
@@ -3058,16 +3372,16 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>122463</v>
+        <v>123519</v>
       </c>
       <c r="I4" t="n">
-        <v>123519</v>
+        <v>125389</v>
       </c>
       <c r="J4" t="n">
-        <v>125389</v>
+        <v>125916</v>
       </c>
       <c r="K4" t="n">
-        <v>125916</v>
+        <v>122951</v>
       </c>
       <c r="L4" t="n">
         <v>122951</v>
@@ -3078,16 +3392,16 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>122951</v>
+        <v>120772</v>
       </c>
       <c r="O4" t="n">
-        <v>120772</v>
+        <v>117536</v>
       </c>
       <c r="P4" t="n">
-        <v>117536</v>
+        <v>111705</v>
       </c>
       <c r="Q4" t="n">
-        <v>111705</v>
+        <v>116110</v>
       </c>
       <c r="R4" t="n">
         <v>116110</v>
@@ -3098,16 +3412,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>116110</v>
+        <v>111450</v>
       </c>
       <c r="U4" t="n">
-        <v>111450</v>
+        <v>104765</v>
       </c>
       <c r="V4" t="n">
-        <v>104765</v>
+        <v>92195</v>
       </c>
       <c r="W4" t="n">
-        <v>92195</v>
+        <v>90826</v>
       </c>
       <c r="X4" t="n">
         <v>90826</v>
@@ -3120,16 +3434,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>133768</v>
+        <v>135880</v>
       </c>
       <c r="C5" t="n">
-        <v>135880</v>
+        <v>127662</v>
       </c>
       <c r="D5" t="n">
-        <v>127662</v>
+        <v>131618</v>
       </c>
       <c r="E5" t="n">
-        <v>131618</v>
+        <v>133819</v>
       </c>
       <c r="F5" t="n">
         <v>133819</v>
@@ -3140,16 +3454,16 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>133819</v>
+        <v>136636</v>
       </c>
       <c r="I5" t="n">
-        <v>136636</v>
+        <v>134253</v>
       </c>
       <c r="J5" t="n">
-        <v>134253</v>
+        <v>137626</v>
       </c>
       <c r="K5" t="n">
-        <v>137626</v>
+        <v>136527</v>
       </c>
       <c r="L5" t="n">
         <v>136527</v>
@@ -3160,16 +3474,16 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>136527</v>
+        <v>137977</v>
       </c>
       <c r="O5" t="n">
-        <v>137977</v>
+        <v>131968</v>
       </c>
       <c r="P5" t="n">
-        <v>131968</v>
+        <v>125407</v>
       </c>
       <c r="Q5" t="n">
-        <v>125407</v>
+        <v>130334</v>
       </c>
       <c r="R5" t="n">
         <v>130334</v>
@@ -3180,16 +3494,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>130334</v>
+        <v>130615</v>
       </c>
       <c r="U5" t="n">
-        <v>130615</v>
+        <v>125369</v>
       </c>
       <c r="V5" t="n">
-        <v>125369</v>
+        <v>104693</v>
       </c>
       <c r="W5" t="n">
-        <v>104693</v>
+        <v>104757</v>
       </c>
       <c r="X5" t="n">
         <v>104757</v>
@@ -3202,16 +3516,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26481</v>
+        <v>17390</v>
       </c>
       <c r="C6" t="n">
-        <v>17390</v>
+        <v>19680</v>
       </c>
       <c r="D6" t="n">
-        <v>19680</v>
+        <v>19269</v>
       </c>
       <c r="E6" t="n">
-        <v>19269</v>
+        <v>29524</v>
       </c>
       <c r="F6" t="n">
         <v>29524</v>
@@ -3222,16 +3536,16 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>29524</v>
+        <v>19087</v>
       </c>
       <c r="I6" t="n">
-        <v>19087</v>
+        <v>23525</v>
       </c>
       <c r="J6" t="n">
-        <v>23525</v>
+        <v>22699</v>
       </c>
       <c r="K6" t="n">
-        <v>22699</v>
+        <v>32011</v>
       </c>
       <c r="L6" t="n">
         <v>32011</v>
@@ -3242,16 +3556,16 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>32011</v>
+        <v>22851</v>
       </c>
       <c r="O6" t="n">
-        <v>22851</v>
+        <v>27312</v>
       </c>
       <c r="P6" t="n">
-        <v>27312</v>
+        <v>26322</v>
       </c>
       <c r="Q6" t="n">
-        <v>26322</v>
+        <v>38043</v>
       </c>
       <c r="R6" t="n">
         <v>38043</v>
@@ -3262,16 +3576,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>38043</v>
+        <v>27349</v>
       </c>
       <c r="U6" t="n">
-        <v>27349</v>
+        <v>33520</v>
       </c>
       <c r="V6" t="n">
-        <v>33520</v>
+        <v>32613</v>
       </c>
       <c r="W6" t="n">
-        <v>32613</v>
+        <v>44261</v>
       </c>
       <c r="X6" t="n">
         <v>44261</v>
@@ -3284,16 +3598,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2662</v>
+        <v>3614</v>
       </c>
       <c r="C7" t="n">
-        <v>3614</v>
+        <v>1961</v>
       </c>
       <c r="D7" t="n">
-        <v>1961</v>
+        <v>1951</v>
       </c>
       <c r="E7" t="n">
-        <v>1951</v>
+        <v>2063</v>
       </c>
       <c r="F7" t="n">
         <v>2063</v>
@@ -3304,16 +3618,16 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2063</v>
+        <v>2622</v>
       </c>
       <c r="I7" t="n">
-        <v>2622</v>
+        <v>1823</v>
       </c>
       <c r="J7" t="n">
-        <v>1823</v>
+        <v>1644</v>
       </c>
       <c r="K7" t="n">
-        <v>1644</v>
+        <v>1895</v>
       </c>
       <c r="L7" t="n">
         <v>1895</v>
@@ -3324,16 +3638,16 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1895</v>
+        <v>2705</v>
       </c>
       <c r="O7" t="n">
-        <v>2705</v>
+        <v>1924</v>
       </c>
       <c r="P7" t="n">
-        <v>1924</v>
+        <v>2245</v>
       </c>
       <c r="Q7" t="n">
-        <v>2245</v>
+        <v>2636</v>
       </c>
       <c r="R7" t="n">
         <v>2636</v>
@@ -3344,16 +3658,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2636</v>
+        <v>3411</v>
       </c>
       <c r="U7" t="n">
-        <v>3411</v>
+        <v>3019</v>
       </c>
       <c r="V7" t="n">
-        <v>3019</v>
+        <v>3296</v>
       </c>
       <c r="W7" t="n">
-        <v>3296</v>
+        <v>3742</v>
       </c>
       <c r="X7" t="n">
         <v>3742</v>
@@ -3366,48 +3680,56 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6751</v>
+        <v>7311</v>
       </c>
       <c r="C8" t="n">
-        <v>7311</v>
+        <v>7571</v>
       </c>
       <c r="D8" t="n">
-        <v>7571</v>
+        <v>7049</v>
       </c>
       <c r="E8" t="n">
-        <v>7049</v>
+        <v>10146</v>
       </c>
       <c r="F8" t="n">
         <v>10146</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>other current assets</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10146</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+        <v>7551</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7473</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8536</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11482</v>
+      </c>
+      <c r="L8" t="n">
+        <v>11482</v>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>other current assets</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>11482</v>
+        <v>13544</v>
       </c>
       <c r="O8" t="n">
-        <v>13544</v>
+        <v>12769</v>
       </c>
       <c r="P8" t="n">
-        <v>12769</v>
+        <v>11640</v>
       </c>
       <c r="Q8" t="n">
-        <v>11640</v>
+        <v>13393</v>
       </c>
       <c r="R8" t="n">
         <v>13393</v>
@@ -3418,16 +3740,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>13393</v>
+        <v>12951</v>
       </c>
       <c r="U8" t="n">
-        <v>12951</v>
+        <v>12280</v>
       </c>
       <c r="V8" t="n">
-        <v>12280</v>
+        <v>13320</v>
       </c>
       <c r="W8" t="n">
-        <v>13320</v>
+        <v>16924</v>
       </c>
       <c r="X8" t="n">
         <v>16924</v>
@@ -3440,37 +3762,39 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>169662</v>
+        <v>164195</v>
       </c>
       <c r="C9" t="n">
-        <v>164195</v>
+        <v>156874</v>
       </c>
       <c r="D9" t="n">
-        <v>156874</v>
+        <v>159887</v>
       </c>
       <c r="E9" t="n">
-        <v>159887</v>
+        <v>175552</v>
       </c>
       <c r="F9" t="n">
         <v>175552</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>other current assets</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>total current assets</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>165896</v>
+      </c>
       <c r="I9" t="n">
-        <v>7551</v>
+        <v>167074</v>
       </c>
       <c r="J9" t="n">
-        <v>7473</v>
+        <v>170505</v>
       </c>
       <c r="K9" t="n">
-        <v>8536</v>
+        <v>181915</v>
       </c>
       <c r="L9" t="n">
-        <v>11482</v>
+        <v>181915</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -3478,16 +3802,16 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>181915</v>
+        <v>177077</v>
       </c>
       <c r="O9" t="n">
-        <v>177077</v>
+        <v>173973</v>
       </c>
       <c r="P9" t="n">
-        <v>173973</v>
+        <v>165614</v>
       </c>
       <c r="Q9" t="n">
-        <v>165614</v>
+        <v>184406</v>
       </c>
       <c r="R9" t="n">
         <v>184406</v>
@@ -3498,16 +3822,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>184406</v>
+        <v>174326</v>
       </c>
       <c r="U9" t="n">
-        <v>174326</v>
+        <v>174188</v>
       </c>
       <c r="V9" t="n">
-        <v>174188</v>
+        <v>153922</v>
       </c>
       <c r="W9" t="n">
-        <v>153922</v>
+        <v>169684</v>
       </c>
       <c r="X9" t="n">
         <v>169684</v>
@@ -3520,39 +3844,39 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29460</v>
+        <v>31430</v>
       </c>
       <c r="C10" t="n">
-        <v>31430</v>
+        <v>32717</v>
       </c>
       <c r="D10" t="n">
-        <v>32717</v>
+        <v>33648</v>
       </c>
       <c r="E10" t="n">
-        <v>33648</v>
+        <v>36477</v>
       </c>
       <c r="F10" t="n">
         <v>36477</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>total current assets</t>
+          <t>property and equipment, net of accumulated depreciation of and</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>175552</v>
+        <v>38409</v>
       </c>
       <c r="I10" t="n">
-        <v>165896</v>
+        <v>40522</v>
       </c>
       <c r="J10" t="n">
-        <v>167074</v>
+        <v>41221</v>
       </c>
       <c r="K10" t="n">
-        <v>170505</v>
+        <v>44151</v>
       </c>
       <c r="L10" t="n">
-        <v>181915</v>
+        <v>44151</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -3560,16 +3884,16 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>44151</v>
+        <v>47927</v>
       </c>
       <c r="O10" t="n">
-        <v>47927</v>
+        <v>51737</v>
       </c>
       <c r="P10" t="n">
-        <v>51737</v>
+        <v>54945</v>
       </c>
       <c r="Q10" t="n">
-        <v>54945</v>
+        <v>59715</v>
       </c>
       <c r="R10" t="n">
         <v>59715</v>
@@ -3580,16 +3904,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>59715</v>
+        <v>63772</v>
       </c>
       <c r="U10" t="n">
-        <v>63772</v>
+        <v>67214</v>
       </c>
       <c r="V10" t="n">
-        <v>67214</v>
+        <v>70298</v>
       </c>
       <c r="W10" t="n">
-        <v>70298</v>
+        <v>74398</v>
       </c>
       <c r="X10" t="n">
         <v>74398</v>
@@ -3602,39 +3926,39 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6686</v>
+        <v>6734</v>
       </c>
       <c r="C11" t="n">
-        <v>6734</v>
+        <v>6806</v>
       </c>
       <c r="D11" t="n">
-        <v>6806</v>
+        <v>7121</v>
       </c>
       <c r="E11" t="n">
-        <v>7121</v>
+        <v>7379</v>
       </c>
       <c r="F11" t="n">
         <v>7379</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>property and equipment, net of accumulated depreciation of and</t>
+          <t>operating lease right-of-use assets</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>36477</v>
+        <v>7890</v>
       </c>
       <c r="I11" t="n">
-        <v>38409</v>
+        <v>8439</v>
       </c>
       <c r="J11" t="n">
-        <v>40522</v>
+        <v>8448</v>
       </c>
       <c r="K11" t="n">
-        <v>41221</v>
+        <v>8753</v>
       </c>
       <c r="L11" t="n">
-        <v>44151</v>
+        <v>8753</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -3642,16 +3966,16 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>8753</v>
+        <v>9047</v>
       </c>
       <c r="O11" t="n">
-        <v>9047</v>
+        <v>10298</v>
       </c>
       <c r="P11" t="n">
-        <v>10298</v>
+        <v>10673</v>
       </c>
       <c r="Q11" t="n">
-        <v>10673</v>
+        <v>11088</v>
       </c>
       <c r="R11" t="n">
         <v>11088</v>
@@ -3662,16 +3986,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>11088</v>
+        <v>11575</v>
       </c>
       <c r="U11" t="n">
-        <v>11575</v>
+        <v>12354</v>
       </c>
       <c r="V11" t="n">
-        <v>12354</v>
+        <v>12916</v>
       </c>
       <c r="W11" t="n">
-        <v>12916</v>
+        <v>13148</v>
       </c>
       <c r="X11" t="n">
         <v>13148</v>
@@ -3680,35 +4004,43 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>equity and other investments</t>
+          <t>equity investments</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1862</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+        <v>2034</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2274</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2403</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2649</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2649</v>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>operating lease right-of-use assets</t>
+          <t>equity investments</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7379</v>
+        <v>2684</v>
       </c>
       <c r="I12" t="n">
-        <v>7890</v>
+        <v>2755</v>
       </c>
       <c r="J12" t="n">
-        <v>8439</v>
+        <v>2660</v>
       </c>
       <c r="K12" t="n">
-        <v>8448</v>
+        <v>2965</v>
       </c>
       <c r="L12" t="n">
-        <v>8753</v>
+        <v>2965</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -3716,16 +4048,16 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2965</v>
+        <v>3103</v>
       </c>
       <c r="O12" t="n">
-        <v>3103</v>
+        <v>3794</v>
       </c>
       <c r="P12" t="n">
-        <v>3794</v>
+        <v>5395</v>
       </c>
       <c r="Q12" t="n">
-        <v>5395</v>
+        <v>5984</v>
       </c>
       <c r="R12" t="n">
         <v>5984</v>
@@ -3736,16 +4068,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>5984</v>
+        <v>6393</v>
       </c>
       <c r="U12" t="n">
-        <v>6393</v>
+        <v>6994</v>
       </c>
       <c r="V12" t="n">
-        <v>6994</v>
+        <v>6907</v>
       </c>
       <c r="W12" t="n">
-        <v>6907</v>
+        <v>6891</v>
       </c>
       <c r="X12" t="n">
         <v>6891</v>
@@ -3754,41 +4086,43 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>equity investments</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>goodwill</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>35855</v>
+      </c>
       <c r="C13" t="n">
-        <v>2034</v>
+        <v>41577</v>
       </c>
       <c r="D13" t="n">
-        <v>2274</v>
+        <v>41861</v>
       </c>
       <c r="E13" t="n">
-        <v>2403</v>
+        <v>42026</v>
       </c>
       <c r="F13" t="n">
-        <v>2649</v>
+        <v>42026</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equity investments</t>
+          <t>goodwill</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2649</v>
+        <v>42113</v>
       </c>
       <c r="I13" t="n">
-        <v>2684</v>
+        <v>42248</v>
       </c>
       <c r="J13" t="n">
-        <v>2755</v>
+        <v>42064</v>
       </c>
       <c r="K13" t="n">
-        <v>2660</v>
+        <v>43351</v>
       </c>
       <c r="L13" t="n">
-        <v>2965</v>
+        <v>43351</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -3796,16 +4130,16 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>43351</v>
+        <v>43890</v>
       </c>
       <c r="O13" t="n">
-        <v>43890</v>
+        <v>44219</v>
       </c>
       <c r="P13" t="n">
-        <v>44219</v>
+        <v>49698</v>
       </c>
       <c r="Q13" t="n">
-        <v>49698</v>
+        <v>49711</v>
       </c>
       <c r="R13" t="n">
         <v>49711</v>
@@ -3816,16 +4150,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>49711</v>
+        <v>50455</v>
       </c>
       <c r="U13" t="n">
-        <v>50455</v>
+        <v>50921</v>
       </c>
       <c r="V13" t="n">
-        <v>50921</v>
+        <v>67371</v>
       </c>
       <c r="W13" t="n">
-        <v>67371</v>
+        <v>67524</v>
       </c>
       <c r="X13" t="n">
         <v>67524</v>
@@ -3834,43 +4168,43 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>goodwill</t>
+          <t>intangible assets, net</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35683</v>
+        <v>7579</v>
       </c>
       <c r="C14" t="n">
-        <v>35855</v>
+        <v>8482</v>
       </c>
       <c r="D14" t="n">
-        <v>41577</v>
+        <v>8103</v>
       </c>
       <c r="E14" t="n">
-        <v>41861</v>
+        <v>7750</v>
       </c>
       <c r="F14" t="n">
-        <v>42026</v>
+        <v>7750</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>goodwill</t>
+          <t>intangible assets, net</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>42026</v>
+        <v>7508</v>
       </c>
       <c r="I14" t="n">
-        <v>42113</v>
+        <v>7126</v>
       </c>
       <c r="J14" t="n">
-        <v>42248</v>
+        <v>6855</v>
       </c>
       <c r="K14" t="n">
-        <v>42064</v>
+        <v>7038</v>
       </c>
       <c r="L14" t="n">
-        <v>43351</v>
+        <v>7038</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -3878,16 +4212,16 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>7038</v>
+        <v>6923</v>
       </c>
       <c r="O14" t="n">
-        <v>6923</v>
+        <v>6555</v>
       </c>
       <c r="P14" t="n">
-        <v>6555</v>
+        <v>8127</v>
       </c>
       <c r="Q14" t="n">
-        <v>8127</v>
+        <v>7800</v>
       </c>
       <c r="R14" t="n">
         <v>7800</v>
@@ -3898,16 +4232,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>7800</v>
+        <v>7794</v>
       </c>
       <c r="U14" t="n">
-        <v>7794</v>
+        <v>7462</v>
       </c>
       <c r="V14" t="n">
-        <v>7462</v>
+        <v>11348</v>
       </c>
       <c r="W14" t="n">
-        <v>11348</v>
+        <v>11298</v>
       </c>
       <c r="X14" t="n">
         <v>11298</v>
@@ -3916,43 +4250,43 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>intangible assets, net</t>
+          <t>other long-term assets</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8053</v>
+        <v>9792</v>
       </c>
       <c r="C15" t="n">
-        <v>7579</v>
+        <v>10129</v>
       </c>
       <c r="D15" t="n">
-        <v>8482</v>
+        <v>10258</v>
       </c>
       <c r="E15" t="n">
-        <v>8103</v>
+        <v>14723</v>
       </c>
       <c r="F15" t="n">
-        <v>7750</v>
+        <v>14723</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>intangible assets, net</t>
+          <t>other long-term assets</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7750</v>
+        <v>14455</v>
       </c>
       <c r="I15" t="n">
-        <v>7508</v>
+        <v>14630</v>
       </c>
       <c r="J15" t="n">
-        <v>7126</v>
+        <v>13696</v>
       </c>
       <c r="K15" t="n">
-        <v>6855</v>
+        <v>13138</v>
       </c>
       <c r="L15" t="n">
-        <v>7038</v>
+        <v>13138</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -3960,16 +4294,16 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>13138</v>
+        <v>13034</v>
       </c>
       <c r="O15" t="n">
-        <v>13034</v>
+        <v>13561</v>
       </c>
       <c r="P15" t="n">
-        <v>13561</v>
+        <v>14427</v>
       </c>
       <c r="Q15" t="n">
-        <v>14427</v>
+        <v>15075</v>
       </c>
       <c r="R15" t="n">
         <v>15075</v>
@@ -3980,16 +4314,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>15075</v>
+        <v>21103</v>
       </c>
       <c r="U15" t="n">
-        <v>21103</v>
+        <v>21256</v>
       </c>
       <c r="V15" t="n">
-        <v>21256</v>
+        <v>21845</v>
       </c>
       <c r="W15" t="n">
-        <v>21845</v>
+        <v>21897</v>
       </c>
       <c r="X15" t="n">
         <v>21897</v>
@@ -3998,43 +4332,43 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>other long-term assets</t>
+          <t>total assets</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7442</v>
+        <v>257619</v>
       </c>
       <c r="C16" t="n">
-        <v>9792</v>
+        <v>258859</v>
       </c>
       <c r="D16" t="n">
-        <v>10129</v>
+        <v>263281</v>
       </c>
       <c r="E16" t="n">
-        <v>10258</v>
+        <v>286556</v>
       </c>
       <c r="F16" t="n">
-        <v>14723</v>
+        <v>286556</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>other long-term assets</t>
+          <t>total assets</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>14723</v>
+        <v>278955</v>
       </c>
       <c r="I16" t="n">
-        <v>14455</v>
+        <v>282794</v>
       </c>
       <c r="J16" t="n">
-        <v>14630</v>
+        <v>285449</v>
       </c>
       <c r="K16" t="n">
-        <v>13696</v>
+        <v>301311</v>
       </c>
       <c r="L16" t="n">
-        <v>13138</v>
+        <v>301311</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -4042,16 +4376,16 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>301311</v>
+        <v>301001</v>
       </c>
       <c r="O16" t="n">
-        <v>301001</v>
+        <v>304137</v>
       </c>
       <c r="P16" t="n">
-        <v>304137</v>
+        <v>308879</v>
       </c>
       <c r="Q16" t="n">
-        <v>308879</v>
+        <v>333779</v>
       </c>
       <c r="R16" t="n">
         <v>333779</v>
@@ -4062,16 +4396,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>333779</v>
+        <v>335418</v>
       </c>
       <c r="U16" t="n">
-        <v>335418</v>
+        <v>340389</v>
       </c>
       <c r="V16" t="n">
-        <v>340389</v>
+        <v>344607</v>
       </c>
       <c r="W16" t="n">
-        <v>344607</v>
+        <v>364840</v>
       </c>
       <c r="X16" t="n">
         <v>364840</v>
@@ -4080,44 +4414,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>total assets</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>258848</v>
-      </c>
-      <c r="C17" t="n">
-        <v>257619</v>
-      </c>
-      <c r="D17" t="n">
-        <v>258859</v>
-      </c>
-      <c r="E17" t="n">
-        <v>263281</v>
-      </c>
-      <c r="F17" t="n">
-        <v>286556</v>
-      </c>
+          <t>current liabilities:</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>total assets</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>286556</v>
-      </c>
-      <c r="I17" t="n">
-        <v>278955</v>
-      </c>
-      <c r="J17" t="n">
-        <v>282794</v>
-      </c>
-      <c r="K17" t="n">
-        <v>285449</v>
-      </c>
-      <c r="L17" t="n">
-        <v>301311</v>
-      </c>
+          <t>current liabilities:</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
           <t>current liabilities:</t>
@@ -4136,7 +4450,11 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -4146,40 +4464,60 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>current liabilities:</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+          <t>accounts payable</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8511</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7563</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7544</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9382</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9382</v>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>current liabilities:</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+          <t>accounts payable</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8574</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8811</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9246</v>
+      </c>
+      <c r="K18" t="n">
+        <v>12530</v>
+      </c>
+      <c r="L18" t="n">
+        <v>12530</v>
+      </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>accounts payable</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>12530</v>
+        <v>12509</v>
       </c>
       <c r="O18" t="n">
-        <v>12509</v>
+        <v>12770</v>
       </c>
       <c r="P18" t="n">
-        <v>12770</v>
+        <v>13412</v>
       </c>
       <c r="Q18" t="n">
-        <v>13412</v>
+        <v>15163</v>
       </c>
       <c r="R18" t="n">
         <v>15163</v>
@@ -4190,16 +4528,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>15163</v>
+        <v>14832</v>
       </c>
       <c r="U18" t="n">
-        <v>14832</v>
+        <v>15314</v>
       </c>
       <c r="V18" t="n">
-        <v>15314</v>
+        <v>16085</v>
       </c>
       <c r="W18" t="n">
-        <v>16085</v>
+        <v>19000</v>
       </c>
       <c r="X18" t="n">
         <v>19000</v>
@@ -4208,43 +4546,43 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>accounts payable</t>
+          <t>current portion of long-term debt</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8617</v>
+        <v>6497</v>
       </c>
       <c r="C19" t="n">
-        <v>8511</v>
+        <v>3516</v>
       </c>
       <c r="D19" t="n">
-        <v>7563</v>
+        <v>6515</v>
       </c>
       <c r="E19" t="n">
-        <v>7544</v>
+        <v>5516</v>
       </c>
       <c r="F19" t="n">
-        <v>9382</v>
+        <v>5516</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>accounts payable</t>
+          <t>current portion of long-term debt</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9382</v>
+        <v>3017</v>
       </c>
       <c r="I19" t="n">
-        <v>8574</v>
+        <v>6247</v>
       </c>
       <c r="J19" t="n">
-        <v>8811</v>
+        <v>3748</v>
       </c>
       <c r="K19" t="n">
-        <v>9246</v>
+        <v>3749</v>
       </c>
       <c r="L19" t="n">
-        <v>12530</v>
+        <v>3749</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -4252,16 +4590,16 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3749</v>
+        <v>6497</v>
       </c>
       <c r="O19" t="n">
-        <v>6497</v>
+        <v>5387</v>
       </c>
       <c r="P19" t="n">
-        <v>5387</v>
+        <v>8051</v>
       </c>
       <c r="Q19" t="n">
-        <v>8051</v>
+        <v>8072</v>
       </c>
       <c r="R19" t="n">
         <v>8072</v>
@@ -4272,16 +4610,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8072</v>
+        <v>3249</v>
       </c>
       <c r="U19" t="n">
-        <v>3249</v>
+        <v>4998</v>
       </c>
       <c r="V19" t="n">
-        <v>4998</v>
+        <v>1749</v>
       </c>
       <c r="W19" t="n">
-        <v>1749</v>
+        <v>2749</v>
       </c>
       <c r="X19" t="n">
         <v>2749</v>
@@ -4290,35 +4628,43 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>short-term debt</t>
+          <t>accrued compensation</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+        <v>4271</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4624</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5764</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6830</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6830</v>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>current portion of long-term debt</t>
+          <t>accrued compensation</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>5516</v>
+        <v>4676</v>
       </c>
       <c r="I20" t="n">
-        <v>3017</v>
+        <v>5421</v>
       </c>
       <c r="J20" t="n">
-        <v>6247</v>
+        <v>6254</v>
       </c>
       <c r="K20" t="n">
-        <v>3748</v>
+        <v>7874</v>
       </c>
       <c r="L20" t="n">
-        <v>3749</v>
+        <v>7874</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -4326,16 +4672,16 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>7874</v>
+        <v>5714</v>
       </c>
       <c r="O20" t="n">
-        <v>5714</v>
+        <v>6838</v>
       </c>
       <c r="P20" t="n">
-        <v>6838</v>
+        <v>8032</v>
       </c>
       <c r="Q20" t="n">
-        <v>8032</v>
+        <v>10057</v>
       </c>
       <c r="R20" t="n">
         <v>10057</v>
@@ -4346,16 +4692,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>10057</v>
+        <v>6894</v>
       </c>
       <c r="U20" t="n">
-        <v>6894</v>
+        <v>7782</v>
       </c>
       <c r="V20" t="n">
-        <v>7782</v>
+        <v>9067</v>
       </c>
       <c r="W20" t="n">
-        <v>9067</v>
+        <v>10661</v>
       </c>
       <c r="X20" t="n">
         <v>10661</v>
@@ -4364,43 +4710,43 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>current portion of long-term debt</t>
+          <t>short-term income taxes</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3998</v>
+        <v>2341</v>
       </c>
       <c r="C21" t="n">
-        <v>6497</v>
+        <v>2033</v>
       </c>
       <c r="D21" t="n">
-        <v>3516</v>
+        <v>1950</v>
       </c>
       <c r="E21" t="n">
-        <v>6515</v>
+        <v>5665</v>
       </c>
       <c r="F21" t="n">
-        <v>5516</v>
+        <v>5665</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>accrued compensation</t>
+          <t>short-term income taxes</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6830</v>
+        <v>3440</v>
       </c>
       <c r="I21" t="n">
-        <v>4676</v>
+        <v>2687</v>
       </c>
       <c r="J21" t="n">
-        <v>5421</v>
+        <v>3296</v>
       </c>
       <c r="K21" t="n">
-        <v>6254</v>
+        <v>2130</v>
       </c>
       <c r="L21" t="n">
-        <v>7874</v>
+        <v>2130</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -4408,16 +4754,16 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2130</v>
+        <v>2384</v>
       </c>
       <c r="O21" t="n">
-        <v>2384</v>
+        <v>1562</v>
       </c>
       <c r="P21" t="n">
-        <v>1562</v>
+        <v>2165</v>
       </c>
       <c r="Q21" t="n">
-        <v>2165</v>
+        <v>2174</v>
       </c>
       <c r="R21" t="n">
         <v>2174</v>
@@ -4428,16 +4774,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2174</v>
+        <v>6272</v>
       </c>
       <c r="U21" t="n">
-        <v>6272</v>
+        <v>3731</v>
       </c>
       <c r="V21" t="n">
-        <v>3731</v>
+        <v>4646</v>
       </c>
       <c r="W21" t="n">
-        <v>4646</v>
+        <v>4067</v>
       </c>
       <c r="X21" t="n">
         <v>4067</v>
@@ -4446,43 +4792,43 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>accrued compensation</t>
+          <t>short-term unearned revenue</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6103</v>
+        <v>26704</v>
       </c>
       <c r="C22" t="n">
-        <v>4271</v>
+        <v>24285</v>
       </c>
       <c r="D22" t="n">
-        <v>4624</v>
+        <v>24251</v>
       </c>
       <c r="E22" t="n">
-        <v>5764</v>
+        <v>32676</v>
       </c>
       <c r="F22" t="n">
-        <v>6830</v>
+        <v>32676</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>short-term income taxes</t>
+          <t>short-term unearned revenue</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5665</v>
+        <v>29904</v>
       </c>
       <c r="I22" t="n">
-        <v>3440</v>
+        <v>27343</v>
       </c>
       <c r="J22" t="n">
-        <v>2687</v>
+        <v>27012</v>
       </c>
       <c r="K22" t="n">
-        <v>3296</v>
+        <v>36000</v>
       </c>
       <c r="L22" t="n">
-        <v>2130</v>
+        <v>36000</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -4490,16 +4836,16 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>36000</v>
+        <v>33476</v>
       </c>
       <c r="O22" t="n">
-        <v>33476</v>
+        <v>30402</v>
       </c>
       <c r="P22" t="n">
-        <v>30402</v>
+        <v>30083</v>
       </c>
       <c r="Q22" t="n">
-        <v>30083</v>
+        <v>41525</v>
       </c>
       <c r="R22" t="n">
         <v>41525</v>
@@ -4510,16 +4856,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>41525</v>
+        <v>38465</v>
       </c>
       <c r="U22" t="n">
-        <v>38465</v>
+        <v>34001</v>
       </c>
       <c r="V22" t="n">
-        <v>34001</v>
+        <v>34027</v>
       </c>
       <c r="W22" t="n">
-        <v>34027</v>
+        <v>45538</v>
       </c>
       <c r="X22" t="n">
         <v>45538</v>
@@ -4528,43 +4874,43 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>short-term income taxes</t>
+          <t>other</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121</v>
+        <v>7953</v>
       </c>
       <c r="C23" t="n">
-        <v>2341</v>
+        <v>8297</v>
       </c>
       <c r="D23" t="n">
-        <v>2033</v>
+        <v>7837</v>
       </c>
       <c r="E23" t="n">
-        <v>1950</v>
+        <v>9351</v>
       </c>
       <c r="F23" t="n">
-        <v>5665</v>
+        <v>9351</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>short-term unearned revenue</t>
+          <t>other current liabilities</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>32676</v>
+        <v>8507</v>
       </c>
       <c r="I23" t="n">
-        <v>29904</v>
+        <v>9131</v>
       </c>
       <c r="J23" t="n">
-        <v>27343</v>
+        <v>9151</v>
       </c>
       <c r="K23" t="n">
-        <v>27012</v>
+        <v>10027</v>
       </c>
       <c r="L23" t="n">
-        <v>36000</v>
+        <v>10027</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -4572,16 +4918,16 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>10027</v>
+        <v>9476</v>
       </c>
       <c r="O23" t="n">
-        <v>9476</v>
+        <v>10527</v>
       </c>
       <c r="P23" t="n">
-        <v>10527</v>
+        <v>10450</v>
       </c>
       <c r="Q23" t="n">
-        <v>10450</v>
+        <v>11666</v>
       </c>
       <c r="R23" t="n">
         <v>11666</v>
@@ -4592,16 +4938,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>11666</v>
+        <v>10816</v>
       </c>
       <c r="U23" t="n">
-        <v>10816</v>
+        <v>11684</v>
       </c>
       <c r="V23" t="n">
-        <v>11684</v>
+        <v>11865</v>
       </c>
       <c r="W23" t="n">
-        <v>11865</v>
+        <v>13067</v>
       </c>
       <c r="X23" t="n">
         <v>13067</v>
@@ -4610,52 +4956,60 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>short-term unearned revenue</t>
+          <t>total current liabilities</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>28905</v>
+        <v>56277</v>
       </c>
       <c r="C24" t="n">
-        <v>26704</v>
+        <v>50318</v>
       </c>
       <c r="D24" t="n">
-        <v>24285</v>
+        <v>53861</v>
       </c>
       <c r="E24" t="n">
-        <v>24251</v>
+        <v>69420</v>
       </c>
       <c r="F24" t="n">
-        <v>32676</v>
+        <v>69420</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>total current liabilities</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9351</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+        <v>58118</v>
+      </c>
+      <c r="I24" t="n">
+        <v>59640</v>
+      </c>
+      <c r="J24" t="n">
+        <v>58707</v>
+      </c>
+      <c r="K24" t="n">
+        <v>72310</v>
+      </c>
+      <c r="L24" t="n">
+        <v>72310</v>
+      </c>
       <c r="M24" t="inlineStr">
         <is>
           <t>total current liabilities</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>72310</v>
+        <v>70056</v>
       </c>
       <c r="O24" t="n">
-        <v>70056</v>
+        <v>67486</v>
       </c>
       <c r="P24" t="n">
-        <v>67486</v>
+        <v>72193</v>
       </c>
       <c r="Q24" t="n">
-        <v>72193</v>
+        <v>88657</v>
       </c>
       <c r="R24" t="n">
         <v>88657</v>
@@ -4666,16 +5020,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>88657</v>
+        <v>80528</v>
       </c>
       <c r="U24" t="n">
-        <v>80528</v>
+        <v>77510</v>
       </c>
       <c r="V24" t="n">
-        <v>77510</v>
+        <v>77439</v>
       </c>
       <c r="W24" t="n">
-        <v>77439</v>
+        <v>95082</v>
       </c>
       <c r="X24" t="n">
         <v>95082</v>
@@ -4684,41 +5038,43 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>long-term debt</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8744</v>
+        <v>69733</v>
       </c>
       <c r="C25" t="n">
-        <v>7953</v>
+        <v>69653</v>
       </c>
       <c r="D25" t="n">
-        <v>8297</v>
+        <v>66585</v>
       </c>
       <c r="E25" t="n">
-        <v>7837</v>
+        <v>66662</v>
       </c>
       <c r="F25" t="n">
-        <v>9351</v>
+        <v>66662</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>other current liabilities</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t>long-term debt</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>66478</v>
+      </c>
       <c r="I25" t="n">
-        <v>8507</v>
+        <v>63361</v>
       </c>
       <c r="J25" t="n">
-        <v>9131</v>
+        <v>62862</v>
       </c>
       <c r="K25" t="n">
-        <v>9151</v>
+        <v>59578</v>
       </c>
       <c r="L25" t="n">
-        <v>10027</v>
+        <v>59578</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -4726,16 +5082,16 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>59578</v>
+        <v>57055</v>
       </c>
       <c r="O25" t="n">
-        <v>57055</v>
+        <v>55136</v>
       </c>
       <c r="P25" t="n">
-        <v>55136</v>
+        <v>50007</v>
       </c>
       <c r="Q25" t="n">
-        <v>50007</v>
+        <v>50074</v>
       </c>
       <c r="R25" t="n">
         <v>50074</v>
@@ -4746,16 +5102,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>50074</v>
+        <v>50039</v>
       </c>
       <c r="U25" t="n">
-        <v>50039</v>
+        <v>48260</v>
       </c>
       <c r="V25" t="n">
-        <v>48260</v>
+        <v>48177</v>
       </c>
       <c r="W25" t="n">
-        <v>48177</v>
+        <v>47032</v>
       </c>
       <c r="X25" t="n">
         <v>47032</v>
@@ -4764,43 +5120,43 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>total current liabilities</t>
+          <t>long-term income taxes</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>58488</v>
+        <v>28936</v>
       </c>
       <c r="C26" t="n">
-        <v>56277</v>
+        <v>29161</v>
       </c>
       <c r="D26" t="n">
-        <v>50318</v>
+        <v>29514</v>
       </c>
       <c r="E26" t="n">
-        <v>53861</v>
+        <v>29612</v>
       </c>
       <c r="F26" t="n">
-        <v>69420</v>
+        <v>29612</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>total current liabilities</t>
+          <t>long-term income taxes</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>69420</v>
+        <v>28457</v>
       </c>
       <c r="I26" t="n">
-        <v>58118</v>
+        <v>28754</v>
       </c>
       <c r="J26" t="n">
-        <v>59640</v>
+        <v>28888</v>
       </c>
       <c r="K26" t="n">
-        <v>58707</v>
+        <v>29432</v>
       </c>
       <c r="L26" t="n">
-        <v>72310</v>
+        <v>29432</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -4808,16 +5164,16 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>29432</v>
+        <v>28204</v>
       </c>
       <c r="O26" t="n">
-        <v>28204</v>
+        <v>26701</v>
       </c>
       <c r="P26" t="n">
-        <v>26701</v>
+        <v>27157</v>
       </c>
       <c r="Q26" t="n">
-        <v>27157</v>
+        <v>27190</v>
       </c>
       <c r="R26" t="n">
         <v>27190</v>
@@ -4828,16 +5184,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>27190</v>
+        <v>25715</v>
       </c>
       <c r="U26" t="n">
-        <v>25715</v>
+        <v>26121</v>
       </c>
       <c r="V26" t="n">
-        <v>26121</v>
+        <v>26483</v>
       </c>
       <c r="W26" t="n">
-        <v>26483</v>
+        <v>26069</v>
       </c>
       <c r="X26" t="n">
         <v>26069</v>
@@ -4846,43 +5202,43 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>long-term debt</t>
+          <t>long-term unearned revenue</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>72242</v>
+        <v>3538</v>
       </c>
       <c r="C27" t="n">
-        <v>69733</v>
+        <v>3799</v>
       </c>
       <c r="D27" t="n">
-        <v>69653</v>
+        <v>3884</v>
       </c>
       <c r="E27" t="n">
-        <v>66585</v>
+        <v>4530</v>
       </c>
       <c r="F27" t="n">
-        <v>66662</v>
+        <v>4530</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>long-term debt</t>
+          <t>long-term unearned revenue</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>66662</v>
+        <v>4122</v>
       </c>
       <c r="I27" t="n">
-        <v>66478</v>
+        <v>3878</v>
       </c>
       <c r="J27" t="n">
-        <v>63361</v>
+        <v>3385</v>
       </c>
       <c r="K27" t="n">
-        <v>62862</v>
+        <v>3180</v>
       </c>
       <c r="L27" t="n">
-        <v>59578</v>
+        <v>3180</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -4890,16 +5246,16 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3180</v>
+        <v>2829</v>
       </c>
       <c r="O27" t="n">
-        <v>2829</v>
+        <v>2985</v>
       </c>
       <c r="P27" t="n">
-        <v>2985</v>
+        <v>2631</v>
       </c>
       <c r="Q27" t="n">
-        <v>2631</v>
+        <v>2616</v>
       </c>
       <c r="R27" t="n">
         <v>2616</v>
@@ -4910,16 +5266,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2616</v>
+        <v>2550</v>
       </c>
       <c r="U27" t="n">
-        <v>2550</v>
+        <v>2768</v>
       </c>
       <c r="V27" t="n">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="W27" t="n">
-        <v>2769</v>
+        <v>2870</v>
       </c>
       <c r="X27" t="n">
         <v>2870</v>
@@ -4928,43 +5284,43 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>long-term income taxes</t>
+          <t>deferred income taxes</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30265</v>
+        <v>1977</v>
       </c>
       <c r="C28" t="n">
-        <v>28936</v>
+        <v>2062</v>
       </c>
       <c r="D28" t="n">
-        <v>29161</v>
+        <v>1838</v>
       </c>
       <c r="E28" t="n">
-        <v>29514</v>
+        <v>233</v>
       </c>
       <c r="F28" t="n">
-        <v>29612</v>
+        <v>233</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>long-term income taxes</t>
+          <t>deferred income taxes</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>29612</v>
+        <v>234</v>
       </c>
       <c r="I28" t="n">
-        <v>28457</v>
+        <v>222</v>
       </c>
       <c r="J28" t="n">
-        <v>28754</v>
+        <v>185</v>
       </c>
       <c r="K28" t="n">
-        <v>28888</v>
+        <v>204</v>
       </c>
       <c r="L28" t="n">
-        <v>29432</v>
+        <v>204</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -4972,16 +5328,16 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="O28" t="n">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="P28" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q28" t="n">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="R28" t="n">
         <v>198</v>
@@ -4992,16 +5348,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="U28" t="n">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="V28" t="n">
-        <v>199</v>
+        <v>304</v>
       </c>
       <c r="W28" t="n">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="X28" t="n">
         <v>230</v>
@@ -5010,43 +5366,43 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>long-term unearned revenue</t>
+          <t>operating lease liabilities</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3815</v>
+        <v>5652</v>
       </c>
       <c r="C29" t="n">
-        <v>3538</v>
+        <v>5683</v>
       </c>
       <c r="D29" t="n">
-        <v>3799</v>
+        <v>5972</v>
       </c>
       <c r="E29" t="n">
-        <v>3884</v>
+        <v>6188</v>
       </c>
       <c r="F29" t="n">
-        <v>4530</v>
+        <v>6188</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>long-term unearned revenue</t>
+          <t>operating lease liabilities</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>4530</v>
+        <v>6659</v>
       </c>
       <c r="I29" t="n">
-        <v>4122</v>
+        <v>7172</v>
       </c>
       <c r="J29" t="n">
-        <v>3878</v>
+        <v>7248</v>
       </c>
       <c r="K29" t="n">
-        <v>3385</v>
+        <v>7671</v>
       </c>
       <c r="L29" t="n">
-        <v>3180</v>
+        <v>7671</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -5054,16 +5410,16 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>7671</v>
+        <v>7753</v>
       </c>
       <c r="O29" t="n">
-        <v>7753</v>
+        <v>8875</v>
       </c>
       <c r="P29" t="n">
-        <v>8875</v>
+        <v>9272</v>
       </c>
       <c r="Q29" t="n">
-        <v>9272</v>
+        <v>9629</v>
       </c>
       <c r="R29" t="n">
         <v>9629</v>
@@ -5074,16 +5430,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>9629</v>
+        <v>10050</v>
       </c>
       <c r="U29" t="n">
-        <v>10050</v>
+        <v>10774</v>
       </c>
       <c r="V29" t="n">
-        <v>10774</v>
+        <v>11357</v>
       </c>
       <c r="W29" t="n">
-        <v>11357</v>
+        <v>11489</v>
       </c>
       <c r="X29" t="n">
         <v>11489</v>
@@ -5092,43 +5448,43 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>deferred income taxes</t>
+          <t>other long-term liabilities</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>541</v>
+        <v>5539</v>
       </c>
       <c r="C30" t="n">
-        <v>1977</v>
+        <v>6055</v>
       </c>
       <c r="D30" t="n">
-        <v>2062</v>
+        <v>6763</v>
       </c>
       <c r="E30" t="n">
-        <v>1838</v>
+        <v>7581</v>
       </c>
       <c r="F30" t="n">
-        <v>233</v>
+        <v>7581</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>deferred income taxes</t>
+          <t>other long-term liabilities</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>233</v>
+        <v>8826</v>
       </c>
       <c r="I30" t="n">
-        <v>234</v>
+        <v>9658</v>
       </c>
       <c r="J30" t="n">
-        <v>222</v>
+        <v>9673</v>
       </c>
       <c r="K30" t="n">
-        <v>185</v>
+        <v>10632</v>
       </c>
       <c r="L30" t="n">
-        <v>204</v>
+        <v>10632</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -5136,16 +5492,16 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>10632</v>
+        <v>11525</v>
       </c>
       <c r="O30" t="n">
-        <v>11525</v>
+        <v>12544</v>
       </c>
       <c r="P30" t="n">
-        <v>12544</v>
+        <v>12941</v>
       </c>
       <c r="Q30" t="n">
-        <v>12941</v>
+        <v>13427</v>
       </c>
       <c r="R30" t="n">
         <v>13427</v>
@@ -5156,16 +5512,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>13427</v>
+        <v>14346</v>
       </c>
       <c r="U30" t="n">
-        <v>14346</v>
+        <v>14747</v>
       </c>
       <c r="V30" t="n">
-        <v>14747</v>
+        <v>15154</v>
       </c>
       <c r="W30" t="n">
-        <v>15154</v>
+        <v>15526</v>
       </c>
       <c r="X30" t="n">
         <v>15526</v>
@@ -5174,43 +5530,43 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>operating lease liabilities</t>
+          <t>total liabilities</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5568</v>
+        <v>171652</v>
       </c>
       <c r="C31" t="n">
-        <v>5652</v>
+        <v>166731</v>
       </c>
       <c r="D31" t="n">
-        <v>5683</v>
+        <v>168417</v>
       </c>
       <c r="E31" t="n">
-        <v>5972</v>
+        <v>184226</v>
       </c>
       <c r="F31" t="n">
-        <v>6188</v>
+        <v>184226</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>operating lease liabilities</t>
+          <t>total liabilities</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>6188</v>
+        <v>172894</v>
       </c>
       <c r="I31" t="n">
-        <v>6659</v>
+        <v>172685</v>
       </c>
       <c r="J31" t="n">
-        <v>7172</v>
+        <v>170948</v>
       </c>
       <c r="K31" t="n">
-        <v>7248</v>
+        <v>183007</v>
       </c>
       <c r="L31" t="n">
-        <v>7671</v>
+        <v>183007</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -5218,16 +5574,16 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>183007</v>
+        <v>177609</v>
       </c>
       <c r="O31" t="n">
-        <v>177609</v>
+        <v>173901</v>
       </c>
       <c r="P31" t="n">
-        <v>173901</v>
+        <v>174374</v>
       </c>
       <c r="Q31" t="n">
-        <v>174374</v>
+        <v>191791</v>
       </c>
       <c r="R31" t="n">
         <v>191791</v>
@@ -5238,16 +5594,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>191791</v>
+        <v>183440</v>
       </c>
       <c r="U31" t="n">
-        <v>183440</v>
+        <v>180379</v>
       </c>
       <c r="V31" t="n">
-        <v>180379</v>
+        <v>181683</v>
       </c>
       <c r="W31" t="n">
-        <v>181683</v>
+        <v>198298</v>
       </c>
       <c r="X31" t="n">
         <v>198298</v>
@@ -5256,43 +5612,63 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>other long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>5211</v>
-      </c>
-      <c r="C32" t="n">
-        <v>5539</v>
-      </c>
-      <c r="D32" t="n">
-        <v>6055</v>
-      </c>
-      <c r="E32" t="n">
-        <v>6763</v>
-      </c>
-      <c r="F32" t="n">
-        <v>7581</v>
+          <t>commitments and contingencies</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>other long-term liabilities</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>7581</v>
-      </c>
-      <c r="I32" t="n">
-        <v>8826</v>
-      </c>
-      <c r="J32" t="n">
-        <v>9658</v>
-      </c>
-      <c r="K32" t="n">
-        <v>9673</v>
-      </c>
-      <c r="L32" t="n">
-        <v>10632</v>
+          <t>commitments and contingencies</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -5358,44 +5734,24 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>total liabilities</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>176130</v>
-      </c>
-      <c r="C33" t="n">
-        <v>171652</v>
-      </c>
-      <c r="D33" t="n">
-        <v>166731</v>
-      </c>
-      <c r="E33" t="n">
-        <v>168417</v>
-      </c>
-      <c r="F33" t="n">
-        <v>184226</v>
-      </c>
+          <t>stockholders’ equity:</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>total liabilities</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>184226</v>
-      </c>
-      <c r="I33" t="n">
-        <v>172894</v>
-      </c>
-      <c r="J33" t="n">
-        <v>172685</v>
-      </c>
-      <c r="K33" t="n">
-        <v>170948</v>
-      </c>
-      <c r="L33" t="n">
-        <v>183007</v>
-      </c>
+          <t>stockholders’ equity:</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
           <t>stockholders’ equity:</t>
@@ -5414,7 +5770,11 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -5424,63 +5784,43 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>commitments and contingencies</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>common stock and paid-in capital – shares authorized; outstanding and</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>71303</v>
+      </c>
+      <c r="C34" t="n">
+        <v>77556</v>
+      </c>
+      <c r="D34" t="n">
+        <v>77791</v>
+      </c>
+      <c r="E34" t="n">
+        <v>78520</v>
+      </c>
+      <c r="F34" t="n">
+        <v>78520</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>commitments and contingencies</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>common stock and paid-in capital – shares authorized; outstanding and</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>78882</v>
+      </c>
+      <c r="I34" t="n">
+        <v>79625</v>
+      </c>
+      <c r="J34" t="n">
+        <v>79813</v>
+      </c>
+      <c r="K34" t="n">
+        <v>80552</v>
+      </c>
+      <c r="L34" t="n">
+        <v>80552</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -5488,16 +5828,16 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>80552</v>
+        <v>81089</v>
       </c>
       <c r="O34" t="n">
-        <v>81089</v>
+        <v>81896</v>
       </c>
       <c r="P34" t="n">
-        <v>81896</v>
+        <v>82308</v>
       </c>
       <c r="Q34" t="n">
-        <v>82308</v>
+        <v>83111</v>
       </c>
       <c r="R34" t="n">
         <v>83111</v>
@@ -5508,16 +5848,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>83111</v>
+        <v>83751</v>
       </c>
       <c r="U34" t="n">
-        <v>83751</v>
+        <v>84528</v>
       </c>
       <c r="V34" t="n">
-        <v>84528</v>
+        <v>85767</v>
       </c>
       <c r="W34" t="n">
-        <v>85767</v>
+        <v>86939</v>
       </c>
       <c r="X34" t="n">
         <v>86939</v>
@@ -5526,40 +5866,60 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>stockholders’ equity:</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+          <t>retained earnings</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>17279</v>
+      </c>
+      <c r="C35" t="n">
+        <v>16585</v>
+      </c>
+      <c r="D35" t="n">
+        <v>18338</v>
+      </c>
+      <c r="E35" t="n">
+        <v>24150</v>
+      </c>
+      <c r="F35" t="n">
+        <v>24150</v>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>stockholders’ equity:</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+          <t>retained earnings</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>27240</v>
+      </c>
+      <c r="I35" t="n">
+        <v>30739</v>
+      </c>
+      <c r="J35" t="n">
+        <v>32012</v>
+      </c>
+      <c r="K35" t="n">
+        <v>34566</v>
+      </c>
+      <c r="L35" t="n">
+        <v>34566</v>
+      </c>
       <c r="M35" t="inlineStr">
         <is>
           <t>retained earnings</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>34566</v>
+        <v>39193</v>
       </c>
       <c r="O35" t="n">
-        <v>39193</v>
+        <v>44973</v>
       </c>
       <c r="P35" t="n">
-        <v>44973</v>
+        <v>50735</v>
       </c>
       <c r="Q35" t="n">
-        <v>50735</v>
+        <v>57055</v>
       </c>
       <c r="R35" t="n">
         <v>57055</v>
@@ -5570,16 +5930,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>57055</v>
+        <v>66944</v>
       </c>
       <c r="U35" t="n">
-        <v>66944</v>
+        <v>75045</v>
       </c>
       <c r="V35" t="n">
-        <v>75045</v>
+        <v>79633</v>
       </c>
       <c r="W35" t="n">
-        <v>79633</v>
+        <v>84281</v>
       </c>
       <c r="X35" t="n">
         <v>84281</v>
@@ -5588,43 +5948,39 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>common stock and paid-in capital – shares authorized; outstanding and</t>
+          <t>accumulated other comprehensive loss</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>71223</v>
+        <v>-2615</v>
       </c>
       <c r="C36" t="n">
-        <v>71303</v>
+        <v>-2013</v>
       </c>
       <c r="D36" t="n">
-        <v>77556</v>
+        <v>-1265</v>
       </c>
       <c r="E36" t="n">
-        <v>77791</v>
+        <v>-340</v>
       </c>
       <c r="F36" t="n">
-        <v>78520</v>
+        <v>-340</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>common stock and paid-in capital – shares authorized; outstanding and</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>78520</v>
-      </c>
-      <c r="I36" t="n">
-        <v>78882</v>
-      </c>
+          <t>accumulated other comprehensive income</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>79625</v>
+        <v>2676</v>
       </c>
       <c r="K36" t="n">
-        <v>79813</v>
+        <v>3186</v>
       </c>
       <c r="L36" t="n">
-        <v>80552</v>
+        <v>3186</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -5632,16 +5988,16 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3186</v>
+        <v>3110</v>
       </c>
       <c r="O36" t="n">
-        <v>3110</v>
+        <v>3367</v>
       </c>
       <c r="P36" t="n">
-        <v>3367</v>
+        <v>1462</v>
       </c>
       <c r="Q36" t="n">
-        <v>1462</v>
+        <v>1822</v>
       </c>
       <c r="R36" t="n">
         <v>1822</v>
@@ -5652,16 +6008,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>1822</v>
+        <v>1283</v>
       </c>
       <c r="U36" t="n">
-        <v>1283</v>
+        <v>437</v>
       </c>
       <c r="V36" t="n">
-        <v>437</v>
+        <v>-2476</v>
       </c>
       <c r="W36" t="n">
-        <v>-2476</v>
+        <v>-4678</v>
       </c>
       <c r="X36" t="n">
         <v>-4678</v>
@@ -5670,60 +6026,54 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>retained earnings</t>
+          <t>total stockholders’ equity</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13682</v>
+        <v>85967</v>
       </c>
       <c r="C37" t="n">
-        <v>17279</v>
+        <v>92128</v>
       </c>
       <c r="D37" t="n">
-        <v>16585</v>
+        <v>94864</v>
       </c>
       <c r="E37" t="n">
-        <v>18338</v>
+        <v>102330</v>
       </c>
       <c r="F37" t="n">
-        <v>24150</v>
+        <v>102330</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>retained earnings</t>
+          <t>accumulated other comprehensive loss</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>24150</v>
+        <v>-61</v>
       </c>
       <c r="I37" t="n">
-        <v>27240</v>
-      </c>
-      <c r="J37" t="n">
-        <v>30739</v>
-      </c>
-      <c r="K37" t="n">
-        <v>32012</v>
-      </c>
-      <c r="L37" t="n">
-        <v>34566</v>
-      </c>
+        <v>-255</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
           <t>total stockholders’ equity</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>118304</v>
+        <v>123392</v>
       </c>
       <c r="O37" t="n">
-        <v>123392</v>
+        <v>130236</v>
       </c>
       <c r="P37" t="n">
-        <v>130236</v>
+        <v>134505</v>
       </c>
       <c r="Q37" t="n">
-        <v>134505</v>
+        <v>141988</v>
       </c>
       <c r="R37" t="n">
         <v>141988</v>
@@ -5734,16 +6084,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>141988</v>
+        <v>151978</v>
       </c>
       <c r="U37" t="n">
-        <v>151978</v>
+        <v>160010</v>
       </c>
       <c r="V37" t="n">
-        <v>160010</v>
+        <v>162924</v>
       </c>
       <c r="W37" t="n">
-        <v>162924</v>
+        <v>166542</v>
       </c>
       <c r="X37" t="n">
         <v>166542</v>
@@ -5752,116 +6102,114 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>accumulated other comprehensive income</t>
+          <t>total liabilities and stockholders' equity</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-2187</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+        <v>257619</v>
+      </c>
+      <c r="C38" t="n">
+        <v>258859</v>
+      </c>
+      <c r="D38" t="n">
+        <v>263281</v>
+      </c>
+      <c r="E38" t="n">
+        <v>286556</v>
+      </c>
+      <c r="F38" t="n">
+        <v>286556</v>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>accumulated other comprehensive loss</t>
+          <t>total stockholders’ equity</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>-340</v>
+        <v>106061</v>
       </c>
       <c r="I38" t="n">
-        <v>-61</v>
+        <v>110109</v>
       </c>
       <c r="J38" t="n">
-        <v>-255</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+        <v>114501</v>
+      </c>
+      <c r="K38" t="n">
+        <v>118304</v>
+      </c>
+      <c r="L38" t="n">
+        <v>118304</v>
+      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>total liabilities and stockholders' equity</t>
+          <t>total liabilities and stockholders’ equity</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>301311</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+        <v>301001</v>
+      </c>
+      <c r="O38" t="n">
+        <v>304137</v>
+      </c>
+      <c r="P38" t="n">
+        <v>308879</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>333779</v>
+      </c>
+      <c r="R38" t="n">
+        <v>333779</v>
+      </c>
       <c r="S38" t="inlineStr">
         <is>
           <t>total liabilities and stockholders’ equity</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>333779</v>
+        <v>335418</v>
       </c>
       <c r="U38" t="n">
-        <v>335418</v>
+        <v>340389</v>
       </c>
       <c r="V38" t="n">
-        <v>340389</v>
+        <v>344607</v>
       </c>
       <c r="W38" t="n">
-        <v>344607</v>
+        <v>364840</v>
       </c>
       <c r="X38" t="n">
         <v>364840</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>accumulated other comprehensive loss</t>
-        </is>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="n">
-        <v>-2615</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-2013</v>
-      </c>
-      <c r="E39" t="n">
-        <v>-1265</v>
-      </c>
-      <c r="F39" t="n">
-        <v>-340</v>
-      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>accumulated other comprehensive income</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
+          <t>total liabilities and stockholders' equity</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>278955</v>
+      </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>2676</v>
+        <v>301311</v>
       </c>
       <c r="L39" t="n">
-        <v>3186</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>total liabilities and stockholders’ equity</t>
-        </is>
-      </c>
+        <v>301311</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
-      <c r="O39" t="n">
-        <v>301001</v>
-      </c>
-      <c r="P39" t="n">
-        <v>304137</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>308879</v>
-      </c>
-      <c r="R39" t="n">
-        <v>333779</v>
-      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
@@ -5870,46 +6218,26 @@
       <c r="X39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>total stockholders’ equity</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>82718</v>
-      </c>
-      <c r="C40" t="n">
-        <v>85967</v>
-      </c>
-      <c r="D40" t="n">
-        <v>92128</v>
-      </c>
-      <c r="E40" t="n">
-        <v>94864</v>
-      </c>
-      <c r="F40" t="n">
-        <v>102330</v>
-      </c>
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>total stockholders’ equity</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>102330</v>
-      </c>
+          <t>total liabilities and stockholders’ equity</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>106061</v>
+        <v>282794</v>
       </c>
       <c r="J40" t="n">
-        <v>110109</v>
-      </c>
-      <c r="K40" t="n">
-        <v>114501</v>
-      </c>
-      <c r="L40" t="n">
-        <v>118304</v>
-      </c>
+        <v>285449</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -5923,90 +6251,6 @@
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>total liabilities and stockholders' equity</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>258848</v>
-      </c>
-      <c r="C41" t="n">
-        <v>257619</v>
-      </c>
-      <c r="D41" t="n">
-        <v>258859</v>
-      </c>
-      <c r="E41" t="n">
-        <v>263281</v>
-      </c>
-      <c r="F41" t="n">
-        <v>286556</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>total liabilities and stockholders' equity</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>286556</v>
-      </c>
-      <c r="I41" t="n">
-        <v>278955</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>301311</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>total liabilities and stockholders’ equity</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>282794</v>
-      </c>
-      <c r="K42" t="n">
-        <v>285449</v>
-      </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
